--- a/output/sed.xlsx
+++ b/output/sed.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="211">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
-  </si>
-  <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Public_Grant</t>
+  </si>
+  <si>
+    <t>NGO_Country_Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Descentralizada</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Internacional</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Otros</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Total</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Cuotas</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Donaciones</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_MAE</t>
+  </si>
+  <si>
+    <t>Public_Funds_Decentralized</t>
+  </si>
+  <si>
+    <t>Public_Funds_Internacional</t>
+  </si>
+  <si>
+    <t>Public_Funds_Other</t>
+  </si>
+  <si>
+    <t>Public_Funds_Total</t>
+  </si>
+  <si>
+    <t>Private_Funds_Cuotas</t>
+  </si>
+  <si>
+    <t>Public_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -978,7 +987,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ172"/>
+  <dimension ref="A1:AM172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -987,7 +996,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1096,10 +1105,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1198,15 +1216,24 @@
         <v>0.6136810046125665</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>57863</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1305,15 +1332,24 @@
         <v>0.6136810046125665</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>167355</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1412,15 +1448,24 @@
         <v>0.6136810046125665</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>83906</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1519,15 +1564,24 @@
         <v>0.6136810046125665</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>10500</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1626,15 +1680,24 @@
         <v>0.6136810046125665</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>54434</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1733,15 +1796,24 @@
         <v>0.6136810046125665</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>162208</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1840,15 +1912,24 @@
         <v>0.6136810046125665</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>55451</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1947,15 +2028,24 @@
         <v>0.6136810046125665</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>71620</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2054,15 +2144,24 @@
         <v>0.6136810046125665</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>79496</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2161,15 +2260,24 @@
         <v>0.6290972429931206</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>3665</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2268,15 +2376,24 @@
         <v>0.6290972429931206</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>11894</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2375,15 +2492,24 @@
         <v>0.6290972429931206</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>5755</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2482,15 +2608,24 @@
         <v>0.6290972429931206</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>16480</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2589,15 +2724,24 @@
         <v>0.6290972429931206</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>22367</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2696,15 +2840,24 @@
         <v>0.6290972429931206</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>48440</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2803,15 +2956,24 @@
         <v>0.6290972429931206</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>336786</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2910,15 +3072,24 @@
         <v>0.6290972429931206</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>2284</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3017,15 +3188,24 @@
         <v>0.6290972429931206</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>172778</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3124,15 +3304,24 @@
         <v>0.6290972429931206</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>230303</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3231,15 +3420,24 @@
         <v>0.6290972429931206</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>7788</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3338,15 +3536,24 @@
         <v>0.6290972429931206</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>26250</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3445,15 +3652,24 @@
         <v>0.6290972429931206</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>95481</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3552,15 +3768,24 @@
         <v>0.6290972429931206</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>714</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3659,15 +3884,24 @@
         <v>0.6290972429931206</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>149117</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3766,15 +4000,24 @@
         <v>0.6290972429931206</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>1</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>14333</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3873,15 +4116,24 @@
         <v>0.6290972429931206</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>1</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>203984</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3980,15 +4232,24 @@
         <v>0.6290972429931206</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
         <v>40095</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4087,15 +4348,24 @@
         <v>0.6290972429931206</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>1</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
         <v>119447</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4194,15 +4464,24 @@
         <v>0.6290972429931206</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
         <v>112486</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4301,15 +4580,24 @@
         <v>0.6290972429931206</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>1</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>32979</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4408,15 +4696,24 @@
         <v>0.6290972429931206</v>
       </c>
       <c r="AI32">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>1</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
         <v>40134</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4515,15 +4812,24 @@
         <v>0.6290972429931206</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
         <v>5250</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -4622,15 +4928,24 @@
         <v>0.6380014658711336</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
         <v>1995</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -4729,15 +5044,24 @@
         <v>0.6380014658711336</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
         <v>65504</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4836,15 +5160,24 @@
         <v>0.6380014658711336</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
         <v>74576</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -4943,15 +5276,24 @@
         <v>0.6380014658711336</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
         <v>5838</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5050,15 +5392,24 @@
         <v>0.6380014658711336</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
         <v>21615</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -5157,15 +5508,24 @@
         <v>0.6380014658711336</v>
       </c>
       <c r="AI39">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39">
         <v>4107</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -5264,15 +5624,24 @@
         <v>0.6380014658711336</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
         <v>9834</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5371,15 +5740,24 @@
         <v>0.6380014658711336</v>
       </c>
       <c r="AI41">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
         <v>33587</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5478,15 +5856,24 @@
         <v>0.6380014658711336</v>
       </c>
       <c r="AI42">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
         <v>92935</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:39">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5585,15 +5972,24 @@
         <v>0.6380014658711336</v>
       </c>
       <c r="AI43">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
         <v>91382</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:39">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -5692,15 +6088,24 @@
         <v>0.6380014658711336</v>
       </c>
       <c r="AI44">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
         <v>16380</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:39">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -5799,15 +6204,24 @@
         <v>0.6380014658711336</v>
       </c>
       <c r="AI45">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>0</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45">
         <v>3866</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:39">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5906,15 +6320,24 @@
         <v>0.6380014658711336</v>
       </c>
       <c r="AI46">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>1</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46">
         <v>118952</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:39">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -6013,15 +6436,24 @@
         <v>0.6380014658711336</v>
       </c>
       <c r="AI47">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>1</v>
+      </c>
+      <c r="AL47">
+        <v>1</v>
+      </c>
+      <c r="AM47">
         <v>113276</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:39">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -6120,15 +6552,24 @@
         <v>0.6380014658711336</v>
       </c>
       <c r="AI48">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
+      </c>
+      <c r="AM48">
         <v>121465</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:39">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6227,15 +6668,24 @@
         <v>0.6380014658711336</v>
       </c>
       <c r="AI49">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>1</v>
+      </c>
+      <c r="AL49">
+        <v>1</v>
+      </c>
+      <c r="AM49">
         <v>63427</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:39">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6334,15 +6784,24 @@
         <v>0.6380014658711336</v>
       </c>
       <c r="AI50">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>1</v>
+      </c>
+      <c r="AL50">
+        <v>1</v>
+      </c>
+      <c r="AM50">
         <v>40999</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:39">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6441,15 +6900,24 @@
         <v>0.6380014658711336</v>
       </c>
       <c r="AI51">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>1</v>
+      </c>
+      <c r="AL51">
+        <v>1</v>
+      </c>
+      <c r="AM51">
         <v>129332</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:39">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6548,15 +7016,24 @@
         <v>0.6380014658711336</v>
       </c>
       <c r="AI52">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>1</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AM52">
         <v>37792</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:39">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6655,15 +7132,24 @@
         <v>0.6380014658711336</v>
       </c>
       <c r="AI53">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>1</v>
+      </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AM53">
         <v>17390</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:39">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6762,15 +7248,24 @@
         <v>0.6380014658711336</v>
       </c>
       <c r="AI54">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>1</v>
+      </c>
+      <c r="AL54">
+        <v>1</v>
+      </c>
+      <c r="AM54">
         <v>73863</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:39">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -6869,15 +7364,24 @@
         <v>0.6380014658711336</v>
       </c>
       <c r="AI55">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>1</v>
+      </c>
+      <c r="AL55">
+        <v>1</v>
+      </c>
+      <c r="AM55">
         <v>127326</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:39">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -6976,15 +7480,24 @@
         <v>0.6380014658711336</v>
       </c>
       <c r="AI56">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>0</v>
+      </c>
+      <c r="AL56">
+        <v>1</v>
+      </c>
+      <c r="AM56">
         <v>3884</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:39">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7083,15 +7596,24 @@
         <v>0.6380014658711336</v>
       </c>
       <c r="AI57">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ57">
+        <v>0</v>
+      </c>
+      <c r="AK57">
+        <v>0</v>
+      </c>
+      <c r="AL57">
+        <v>1</v>
+      </c>
+      <c r="AM57">
         <v>8982</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:39">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7190,15 +7712,24 @@
         <v>0.6380014658711336</v>
       </c>
       <c r="AI58">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
+        <v>0</v>
+      </c>
+      <c r="AL58">
+        <v>1</v>
+      </c>
+      <c r="AM58">
         <v>42130</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:39">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -7297,15 +7828,24 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI59">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>0</v>
+      </c>
+      <c r="AL59">
+        <v>1</v>
+      </c>
+      <c r="AM59">
         <v>30346.925</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:39">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -7404,15 +7944,24 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI60">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ60">
+        <v>0</v>
+      </c>
+      <c r="AK60">
+        <v>0</v>
+      </c>
+      <c r="AL60">
+        <v>1</v>
+      </c>
+      <c r="AM60">
         <v>2825</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:39">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -7511,15 +8060,24 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI61">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
+      <c r="AL61">
+        <v>1</v>
+      </c>
+      <c r="AM61">
         <v>122070.005</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:39">
       <c r="A62" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7618,15 +8176,24 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI62">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>0</v>
+      </c>
+      <c r="AL62">
+        <v>1</v>
+      </c>
+      <c r="AM62">
         <v>30726.875</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:39">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -7725,15 +8292,24 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI63">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ63">
+        <v>0</v>
+      </c>
+      <c r="AK63">
+        <v>0</v>
+      </c>
+      <c r="AL63">
+        <v>1</v>
+      </c>
+      <c r="AM63">
         <v>67704.295</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:39">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -7832,15 +8408,24 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI64">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ64">
+        <v>0</v>
+      </c>
+      <c r="AK64">
+        <v>0</v>
+      </c>
+      <c r="AL64">
+        <v>1</v>
+      </c>
+      <c r="AM64">
         <v>2373</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:39">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -7939,15 +8524,24 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI65">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>0</v>
+      </c>
+      <c r="AL65">
+        <v>1</v>
+      </c>
+      <c r="AM65">
         <v>8701</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:39">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -8046,15 +8640,24 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI66">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ66">
+        <v>0</v>
+      </c>
+      <c r="AK66">
+        <v>0</v>
+      </c>
+      <c r="AL66">
+        <v>1</v>
+      </c>
+      <c r="AM66">
         <v>63617.47</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:39">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -8153,15 +8756,24 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI67">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ67">
+        <v>0</v>
+      </c>
+      <c r="AK67">
+        <v>0</v>
+      </c>
+      <c r="AL67">
+        <v>1</v>
+      </c>
+      <c r="AM67">
         <v>3319.585</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:39">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -8260,15 +8872,24 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI68">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ68">
+        <v>0</v>
+      </c>
+      <c r="AK68">
+        <v>0</v>
+      </c>
+      <c r="AL68">
+        <v>1</v>
+      </c>
+      <c r="AM68">
         <v>2260</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:39">
       <c r="A69" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -8367,15 +8988,24 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI69">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ69">
+        <v>0</v>
+      </c>
+      <c r="AK69">
+        <v>0</v>
+      </c>
+      <c r="AL69">
+        <v>1</v>
+      </c>
+      <c r="AM69">
         <v>5669.21</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:39">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -8474,15 +9104,24 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI70">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ70">
+        <v>0</v>
+      </c>
+      <c r="AK70">
+        <v>1</v>
+      </c>
+      <c r="AL70">
+        <v>1</v>
+      </c>
+      <c r="AM70">
         <v>36612.85</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:39">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -8581,15 +9220,24 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI71">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ71">
+        <v>0</v>
+      </c>
+      <c r="AK71">
+        <v>1</v>
+      </c>
+      <c r="AL71">
+        <v>1</v>
+      </c>
+      <c r="AM71">
         <v>414.37</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:39">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -8688,15 +9336,24 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI72">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ72">
+        <v>0</v>
+      </c>
+      <c r="AK72">
+        <v>1</v>
+      </c>
+      <c r="AL72">
+        <v>1</v>
+      </c>
+      <c r="AM72">
         <v>20674.825</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:39">
       <c r="A73" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -8795,15 +9452,24 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI73">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ73">
+        <v>0</v>
+      </c>
+      <c r="AK73">
+        <v>1</v>
+      </c>
+      <c r="AL73">
+        <v>1</v>
+      </c>
+      <c r="AM73">
         <v>84750.815</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:39">
       <c r="A74" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -8902,15 +9568,24 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI74">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ74">
+        <v>0</v>
+      </c>
+      <c r="AK74">
+        <v>1</v>
+      </c>
+      <c r="AL74">
+        <v>1</v>
+      </c>
+      <c r="AM74">
         <v>67123.83500000001</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:39">
       <c r="A75" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -9009,15 +9684,24 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI75">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ75">
+        <v>0</v>
+      </c>
+      <c r="AK75">
+        <v>1</v>
+      </c>
+      <c r="AL75">
+        <v>1</v>
+      </c>
+      <c r="AM75">
         <v>22419.495</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:39">
       <c r="A76" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -9116,15 +9800,24 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI76">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ76">
+        <v>0</v>
+      </c>
+      <c r="AK76">
+        <v>1</v>
+      </c>
+      <c r="AL76">
+        <v>1</v>
+      </c>
+      <c r="AM76">
         <v>17102.835</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:39">
       <c r="A77" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -9223,15 +9916,24 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI77">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ77">
+        <v>0</v>
+      </c>
+      <c r="AK77">
+        <v>0</v>
+      </c>
+      <c r="AL77">
+        <v>1</v>
+      </c>
+      <c r="AM77">
         <v>39435.54</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:39">
       <c r="A78" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -9330,21 +10032,30 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI78">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ78">
+        <v>0</v>
+      </c>
+      <c r="AK78">
+        <v>1</v>
+      </c>
+      <c r="AL78">
+        <v>1</v>
+      </c>
+      <c r="AM78">
         <v>11173.44</v>
       </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:39">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -9437,15 +10148,24 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI79">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ79">
+        <v>0</v>
+      </c>
+      <c r="AK79">
+        <v>0</v>
+      </c>
+      <c r="AL79">
+        <v>1</v>
+      </c>
+      <c r="AM79">
         <v>17813.665</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:39">
       <c r="A80" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -9544,15 +10264,24 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI80">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ80">
+        <v>0</v>
+      </c>
+      <c r="AK80">
+        <v>0</v>
+      </c>
+      <c r="AL80">
+        <v>1</v>
+      </c>
+      <c r="AM80">
         <v>1568.1</v>
       </c>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:39">
       <c r="A81" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -9651,15 +10380,24 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI81">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ81">
+        <v>0</v>
+      </c>
+      <c r="AK81">
+        <v>0</v>
+      </c>
+      <c r="AL81">
+        <v>1</v>
+      </c>
+      <c r="AM81">
         <v>30346.925</v>
       </c>
     </row>
-    <row r="82" spans="1:36">
+    <row r="82" spans="1:39">
       <c r="A82" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -9758,15 +10496,24 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI82">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ82">
+        <v>0</v>
+      </c>
+      <c r="AK82">
+        <v>0</v>
+      </c>
+      <c r="AL82">
+        <v>1</v>
+      </c>
+      <c r="AM82">
         <v>2825</v>
       </c>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:39">
       <c r="A83" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -9865,15 +10612,24 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI83">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ83">
+        <v>0</v>
+      </c>
+      <c r="AK83">
+        <v>0</v>
+      </c>
+      <c r="AL83">
+        <v>1</v>
+      </c>
+      <c r="AM83">
         <v>122070.005</v>
       </c>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:39">
       <c r="A84" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -9972,15 +10728,24 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI84">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ84">
+        <v>0</v>
+      </c>
+      <c r="AK84">
+        <v>0</v>
+      </c>
+      <c r="AL84">
+        <v>1</v>
+      </c>
+      <c r="AM84">
         <v>30726.875</v>
       </c>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:39">
       <c r="A85" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -10079,15 +10844,24 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI85">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ85">
+        <v>0</v>
+      </c>
+      <c r="AK85">
+        <v>0</v>
+      </c>
+      <c r="AL85">
+        <v>1</v>
+      </c>
+      <c r="AM85">
         <v>67704.295</v>
       </c>
     </row>
-    <row r="86" spans="1:36">
+    <row r="86" spans="1:39">
       <c r="A86" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -10186,15 +10960,24 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI86">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ86">
+        <v>0</v>
+      </c>
+      <c r="AK86">
+        <v>0</v>
+      </c>
+      <c r="AL86">
+        <v>1</v>
+      </c>
+      <c r="AM86">
         <v>2373</v>
       </c>
     </row>
-    <row r="87" spans="1:36">
+    <row r="87" spans="1:39">
       <c r="A87" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -10293,15 +11076,24 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI87">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ87">
+        <v>0</v>
+      </c>
+      <c r="AK87">
+        <v>0</v>
+      </c>
+      <c r="AL87">
+        <v>1</v>
+      </c>
+      <c r="AM87">
         <v>8701</v>
       </c>
     </row>
-    <row r="88" spans="1:36">
+    <row r="88" spans="1:39">
       <c r="A88" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -10400,15 +11192,24 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI88">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ88">
+        <v>0</v>
+      </c>
+      <c r="AK88">
+        <v>0</v>
+      </c>
+      <c r="AL88">
+        <v>1</v>
+      </c>
+      <c r="AM88">
         <v>63617.47</v>
       </c>
     </row>
-    <row r="89" spans="1:36">
+    <row r="89" spans="1:39">
       <c r="A89" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -10507,15 +11308,24 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI89">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ89">
+        <v>0</v>
+      </c>
+      <c r="AK89">
+        <v>0</v>
+      </c>
+      <c r="AL89">
+        <v>1</v>
+      </c>
+      <c r="AM89">
         <v>3319.585</v>
       </c>
     </row>
-    <row r="90" spans="1:36">
+    <row r="90" spans="1:39">
       <c r="A90" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -10614,15 +11424,24 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI90">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ90">
+        <v>0</v>
+      </c>
+      <c r="AK90">
+        <v>0</v>
+      </c>
+      <c r="AL90">
+        <v>1</v>
+      </c>
+      <c r="AM90">
         <v>2260</v>
       </c>
     </row>
-    <row r="91" spans="1:36">
+    <row r="91" spans="1:39">
       <c r="A91" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -10721,15 +11540,24 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI91">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ91">
+        <v>0</v>
+      </c>
+      <c r="AK91">
+        <v>0</v>
+      </c>
+      <c r="AL91">
+        <v>1</v>
+      </c>
+      <c r="AM91">
         <v>5669.21</v>
       </c>
     </row>
-    <row r="92" spans="1:36">
+    <row r="92" spans="1:39">
       <c r="A92" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -10828,15 +11656,24 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI92">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ92">
+        <v>0</v>
+      </c>
+      <c r="AK92">
+        <v>1</v>
+      </c>
+      <c r="AL92">
+        <v>1</v>
+      </c>
+      <c r="AM92">
         <v>36612.85</v>
       </c>
     </row>
-    <row r="93" spans="1:36">
+    <row r="93" spans="1:39">
       <c r="A93" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -10935,15 +11772,24 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI93">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ93">
+        <v>0</v>
+      </c>
+      <c r="AK93">
+        <v>1</v>
+      </c>
+      <c r="AL93">
+        <v>1</v>
+      </c>
+      <c r="AM93">
         <v>414.37</v>
       </c>
     </row>
-    <row r="94" spans="1:36">
+    <row r="94" spans="1:39">
       <c r="A94" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -11042,15 +11888,24 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI94">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ94">
+        <v>0</v>
+      </c>
+      <c r="AK94">
+        <v>1</v>
+      </c>
+      <c r="AL94">
+        <v>1</v>
+      </c>
+      <c r="AM94">
         <v>20674.825</v>
       </c>
     </row>
-    <row r="95" spans="1:36">
+    <row r="95" spans="1:39">
       <c r="A95" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -11149,15 +12004,24 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI95">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ95">
+        <v>0</v>
+      </c>
+      <c r="AK95">
+        <v>1</v>
+      </c>
+      <c r="AL95">
+        <v>1</v>
+      </c>
+      <c r="AM95">
         <v>84750.815</v>
       </c>
     </row>
-    <row r="96" spans="1:36">
+    <row r="96" spans="1:39">
       <c r="A96" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -11256,15 +12120,24 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI96">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ96">
+        <v>0</v>
+      </c>
+      <c r="AK96">
+        <v>1</v>
+      </c>
+      <c r="AL96">
+        <v>1</v>
+      </c>
+      <c r="AM96">
         <v>67123.83500000001</v>
       </c>
     </row>
-    <row r="97" spans="1:36">
+    <row r="97" spans="1:39">
       <c r="A97" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -11363,15 +12236,24 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI97">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ97">
+        <v>0</v>
+      </c>
+      <c r="AK97">
+        <v>1</v>
+      </c>
+      <c r="AL97">
+        <v>1</v>
+      </c>
+      <c r="AM97">
         <v>22419.495</v>
       </c>
     </row>
-    <row r="98" spans="1:36">
+    <row r="98" spans="1:39">
       <c r="A98" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -11470,15 +12352,24 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI98">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ98">
+        <v>0</v>
+      </c>
+      <c r="AK98">
+        <v>1</v>
+      </c>
+      <c r="AL98">
+        <v>1</v>
+      </c>
+      <c r="AM98">
         <v>17102.835</v>
       </c>
     </row>
-    <row r="99" spans="1:36">
+    <row r="99" spans="1:39">
       <c r="A99" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -11577,15 +12468,24 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI99">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ99">
+        <v>0</v>
+      </c>
+      <c r="AK99">
+        <v>0</v>
+      </c>
+      <c r="AL99">
+        <v>1</v>
+      </c>
+      <c r="AM99">
         <v>39435.54</v>
       </c>
     </row>
-    <row r="100" spans="1:36">
+    <row r="100" spans="1:39">
       <c r="A100" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -11684,21 +12584,30 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI100">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ100">
+        <v>0</v>
+      </c>
+      <c r="AK100">
+        <v>1</v>
+      </c>
+      <c r="AL100">
+        <v>1</v>
+      </c>
+      <c r="AM100">
         <v>11173.44</v>
       </c>
     </row>
-    <row r="101" spans="1:36">
+    <row r="101" spans="1:39">
       <c r="A101" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="C101" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -11791,15 +12700,24 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI101">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ101">
+        <v>0</v>
+      </c>
+      <c r="AK101">
+        <v>0</v>
+      </c>
+      <c r="AL101">
+        <v>1</v>
+      </c>
+      <c r="AM101">
         <v>17813.665</v>
       </c>
     </row>
-    <row r="102" spans="1:36">
+    <row r="102" spans="1:39">
       <c r="A102" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -11898,15 +12816,24 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI102">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ102">
+        <v>0</v>
+      </c>
+      <c r="AK102">
+        <v>0</v>
+      </c>
+      <c r="AL102">
+        <v>1</v>
+      </c>
+      <c r="AM102">
         <v>1568.1</v>
       </c>
     </row>
-    <row r="103" spans="1:36">
+    <row r="103" spans="1:39">
       <c r="A103" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -12005,15 +12932,24 @@
         <v>0.8403615839001141</v>
       </c>
       <c r="AI103">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ103">
+        <v>0</v>
+      </c>
+      <c r="AK103">
+        <v>0</v>
+      </c>
+      <c r="AL103">
+        <v>1</v>
+      </c>
+      <c r="AM103">
         <v>24236.115</v>
       </c>
     </row>
-    <row r="104" spans="1:36">
+    <row r="104" spans="1:39">
       <c r="A104" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -12112,15 +13048,24 @@
         <v>0.8403615839001141</v>
       </c>
       <c r="AI104">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ104">
+        <v>0</v>
+      </c>
+      <c r="AK104">
+        <v>0</v>
+      </c>
+      <c r="AL104">
+        <v>1</v>
+      </c>
+      <c r="AM104">
         <v>9345.715</v>
       </c>
     </row>
-    <row r="105" spans="1:36">
+    <row r="105" spans="1:39">
       <c r="A105" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -12219,15 +13164,24 @@
         <v>0.8403615839001141</v>
       </c>
       <c r="AI105">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ105">
+        <v>0</v>
+      </c>
+      <c r="AK105">
+        <v>1</v>
+      </c>
+      <c r="AL105">
+        <v>1</v>
+      </c>
+      <c r="AM105">
         <v>74816.88</v>
       </c>
     </row>
-    <row r="106" spans="1:36">
+    <row r="106" spans="1:39">
       <c r="A106" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -12326,15 +13280,24 @@
         <v>0.8403615839001141</v>
       </c>
       <c r="AI106">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ106">
+        <v>0</v>
+      </c>
+      <c r="AK106">
+        <v>0</v>
+      </c>
+      <c r="AL106">
+        <v>1</v>
+      </c>
+      <c r="AM106">
         <v>4842.92</v>
       </c>
     </row>
-    <row r="107" spans="1:36">
+    <row r="107" spans="1:39">
       <c r="A107" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -12433,15 +13396,24 @@
         <v>0.8403615839001141</v>
       </c>
       <c r="AI107">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ107">
+        <v>0</v>
+      </c>
+      <c r="AK107">
+        <v>0</v>
+      </c>
+      <c r="AL107">
+        <v>1</v>
+      </c>
+      <c r="AM107">
         <v>42582.455</v>
       </c>
     </row>
-    <row r="108" spans="1:36">
+    <row r="108" spans="1:39">
       <c r="A108" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -12540,15 +13512,24 @@
         <v>0.8403615839001141</v>
       </c>
       <c r="AI108">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ108">
+        <v>0</v>
+      </c>
+      <c r="AK108">
+        <v>0</v>
+      </c>
+      <c r="AL108">
+        <v>1</v>
+      </c>
+      <c r="AM108">
         <v>48668.635</v>
       </c>
     </row>
-    <row r="109" spans="1:36">
+    <row r="109" spans="1:39">
       <c r="A109" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -12647,15 +13628,24 @@
         <v>0.8403615839001141</v>
       </c>
       <c r="AI109">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ109">
+        <v>0</v>
+      </c>
+      <c r="AK109">
+        <v>1</v>
+      </c>
+      <c r="AL109">
+        <v>1</v>
+      </c>
+      <c r="AM109">
         <v>3568.385</v>
       </c>
     </row>
-    <row r="110" spans="1:36">
+    <row r="110" spans="1:39">
       <c r="A110" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -12754,15 +13744,24 @@
         <v>0.8403615839001141</v>
       </c>
       <c r="AI110">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ110">
+        <v>0</v>
+      </c>
+      <c r="AK110">
+        <v>1</v>
+      </c>
+      <c r="AL110">
+        <v>1</v>
+      </c>
+      <c r="AM110">
         <v>11435.355</v>
       </c>
     </row>
-    <row r="111" spans="1:36">
+    <row r="111" spans="1:39">
       <c r="A111" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -12861,15 +13860,24 @@
         <v>0.8403615839001141</v>
       </c>
       <c r="AI111">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ111">
+        <v>0</v>
+      </c>
+      <c r="AK111">
+        <v>0</v>
+      </c>
+      <c r="AL111">
+        <v>1</v>
+      </c>
+      <c r="AM111">
         <v>93632.96000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:36">
+    <row r="112" spans="1:39">
       <c r="A112" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -12968,15 +13976,24 @@
         <v>0.8403615839001141</v>
       </c>
       <c r="AI112">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ112">
+        <v>0</v>
+      </c>
+      <c r="AK112">
+        <v>1</v>
+      </c>
+      <c r="AL112">
+        <v>1</v>
+      </c>
+      <c r="AM112">
         <v>59790.915</v>
       </c>
     </row>
-    <row r="113" spans="1:36">
+    <row r="113" spans="1:39">
       <c r="A113" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -13075,15 +14092,24 @@
         <v>0.8403615839001141</v>
       </c>
       <c r="AI113">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ113">
+        <v>0</v>
+      </c>
+      <c r="AK113">
+        <v>1</v>
+      </c>
+      <c r="AL113">
+        <v>1</v>
+      </c>
+      <c r="AM113">
         <v>83710.185</v>
       </c>
     </row>
-    <row r="114" spans="1:36">
+    <row r="114" spans="1:39">
       <c r="A114" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -13182,15 +14208,24 @@
         <v>0.8403615839001141</v>
       </c>
       <c r="AI114">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ114">
+        <v>0</v>
+      </c>
+      <c r="AK114">
+        <v>0</v>
+      </c>
+      <c r="AL114">
+        <v>1</v>
+      </c>
+      <c r="AM114">
         <v>1637.02</v>
       </c>
     </row>
-    <row r="115" spans="1:36">
+    <row r="115" spans="1:39">
       <c r="A115" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -13289,15 +14324,24 @@
         <v>0.8403615839001141</v>
       </c>
       <c r="AI115">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ115">
+        <v>0</v>
+      </c>
+      <c r="AK115">
+        <v>0</v>
+      </c>
+      <c r="AL115">
+        <v>1</v>
+      </c>
+      <c r="AM115">
         <v>25659.6</v>
       </c>
     </row>
-    <row r="116" spans="1:36">
+    <row r="116" spans="1:39">
       <c r="A116" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -13396,15 +14440,24 @@
         <v>0.8403615839001141</v>
       </c>
       <c r="AI116">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ116">
+        <v>0</v>
+      </c>
+      <c r="AK116">
+        <v>0</v>
+      </c>
+      <c r="AL116">
+        <v>1</v>
+      </c>
+      <c r="AM116">
         <v>5631.325</v>
       </c>
     </row>
-    <row r="117" spans="1:36">
+    <row r="117" spans="1:39">
       <c r="A117" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -13503,15 +14556,24 @@
         <v>0.8403615839001141</v>
       </c>
       <c r="AI117">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ117">
+        <v>0</v>
+      </c>
+      <c r="AK117">
+        <v>0</v>
+      </c>
+      <c r="AL117">
+        <v>1</v>
+      </c>
+      <c r="AM117">
         <v>10170.955</v>
       </c>
     </row>
-    <row r="118" spans="1:36">
+    <row r="118" spans="1:39">
       <c r="A118" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -13610,15 +14672,24 @@
         <v>0.8403615839001141</v>
       </c>
       <c r="AI118">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ118">
+        <v>0</v>
+      </c>
+      <c r="AK118">
+        <v>0</v>
+      </c>
+      <c r="AL118">
+        <v>1</v>
+      </c>
+      <c r="AM118">
         <v>5949.735</v>
       </c>
     </row>
-    <row r="119" spans="1:36">
+    <row r="119" spans="1:39">
       <c r="A119" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -13717,15 +14788,24 @@
         <v>0.8403615839001141</v>
       </c>
       <c r="AI119">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ119">
+        <v>0</v>
+      </c>
+      <c r="AK119">
+        <v>0</v>
+      </c>
+      <c r="AL119">
+        <v>1</v>
+      </c>
+      <c r="AM119">
         <v>4742.355</v>
       </c>
     </row>
-    <row r="120" spans="1:36">
+    <row r="120" spans="1:39">
       <c r="A120" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -13824,15 +14904,24 @@
         <v>0.8403615839001141</v>
       </c>
       <c r="AI120">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ120">
+        <v>0</v>
+      </c>
+      <c r="AK120">
+        <v>0</v>
+      </c>
+      <c r="AL120">
+        <v>1</v>
+      </c>
+      <c r="AM120">
         <v>8446.950000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:36">
+    <row r="121" spans="1:39">
       <c r="A121" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -13931,15 +15020,24 @@
         <v>0.8403615839001141</v>
       </c>
       <c r="AI121">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ121">
+        <v>0</v>
+      </c>
+      <c r="AK121">
+        <v>1</v>
+      </c>
+      <c r="AL121">
+        <v>1</v>
+      </c>
+      <c r="AM121">
         <v>33160.11</v>
       </c>
     </row>
-    <row r="122" spans="1:36">
+    <row r="122" spans="1:39">
       <c r="A122" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -14038,21 +15136,30 @@
         <v>0.8403615839001141</v>
       </c>
       <c r="AI122">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ122">
+        <v>0</v>
+      </c>
+      <c r="AK122">
+        <v>1</v>
+      </c>
+      <c r="AL122">
+        <v>1</v>
+      </c>
+      <c r="AM122">
         <v>13131.85</v>
       </c>
     </row>
-    <row r="123" spans="1:36">
+    <row r="123" spans="1:39">
       <c r="A123" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="C123" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -14145,15 +15252,24 @@
         <v>0.8403615839001141</v>
       </c>
       <c r="AI123">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ123">
+        <v>0</v>
+      </c>
+      <c r="AK123">
+        <v>0</v>
+      </c>
+      <c r="AL123">
+        <v>1</v>
+      </c>
+      <c r="AM123">
         <v>17542.305</v>
       </c>
     </row>
-    <row r="124" spans="1:36">
+    <row r="124" spans="1:39">
       <c r="A124" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -14252,15 +15368,24 @@
         <v>0.8403615839001141</v>
       </c>
       <c r="AI124">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ124">
+        <v>0</v>
+      </c>
+      <c r="AK124">
+        <v>0</v>
+      </c>
+      <c r="AL124">
+        <v>1</v>
+      </c>
+      <c r="AM124">
         <v>5631.3</v>
       </c>
     </row>
-    <row r="125" spans="1:36">
+    <row r="125" spans="1:39">
       <c r="A125" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -14359,15 +15484,24 @@
         <v>0.8403615839001141</v>
       </c>
       <c r="AI125">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ125">
+        <v>0</v>
+      </c>
+      <c r="AK125">
+        <v>0</v>
+      </c>
+      <c r="AL125">
+        <v>1</v>
+      </c>
+      <c r="AM125">
         <v>4223.475</v>
       </c>
     </row>
-    <row r="126" spans="1:36">
+    <row r="126" spans="1:39">
       <c r="A126" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -14466,15 +15600,24 @@
         <v>0.8403615839001141</v>
       </c>
       <c r="AI126">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ126">
+        <v>0</v>
+      </c>
+      <c r="AK126">
+        <v>0</v>
+      </c>
+      <c r="AL126">
+        <v>1</v>
+      </c>
+      <c r="AM126">
         <v>11719.705</v>
       </c>
     </row>
-    <row r="127" spans="1:36">
+    <row r="127" spans="1:39">
       <c r="A127" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -14573,15 +15716,24 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI127">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ127">
+        <v>0</v>
+      </c>
+      <c r="AK127">
+        <v>0</v>
+      </c>
+      <c r="AL127">
+        <v>1</v>
+      </c>
+      <c r="AM127">
         <v>24236.115</v>
       </c>
     </row>
-    <row r="128" spans="1:36">
+    <row r="128" spans="1:39">
       <c r="A128" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -14680,15 +15832,24 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI128">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ128">
+        <v>0</v>
+      </c>
+      <c r="AK128">
+        <v>0</v>
+      </c>
+      <c r="AL128">
+        <v>1</v>
+      </c>
+      <c r="AM128">
         <v>9345.715</v>
       </c>
     </row>
-    <row r="129" spans="1:36">
+    <row r="129" spans="1:39">
       <c r="A129" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -14787,15 +15948,24 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI129">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ129">
+        <v>0</v>
+      </c>
+      <c r="AK129">
+        <v>1</v>
+      </c>
+      <c r="AL129">
+        <v>1</v>
+      </c>
+      <c r="AM129">
         <v>74816.88</v>
       </c>
     </row>
-    <row r="130" spans="1:36">
+    <row r="130" spans="1:39">
       <c r="A130" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -14894,15 +16064,24 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI130">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ130">
+        <v>0</v>
+      </c>
+      <c r="AK130">
+        <v>0</v>
+      </c>
+      <c r="AL130">
+        <v>1</v>
+      </c>
+      <c r="AM130">
         <v>4842.92</v>
       </c>
     </row>
-    <row r="131" spans="1:36">
+    <row r="131" spans="1:39">
       <c r="A131" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -15001,15 +16180,24 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI131">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ131">
+        <v>0</v>
+      </c>
+      <c r="AK131">
+        <v>0</v>
+      </c>
+      <c r="AL131">
+        <v>1</v>
+      </c>
+      <c r="AM131">
         <v>42582.455</v>
       </c>
     </row>
-    <row r="132" spans="1:36">
+    <row r="132" spans="1:39">
       <c r="A132" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -15108,15 +16296,24 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI132">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ132">
+        <v>0</v>
+      </c>
+      <c r="AK132">
+        <v>0</v>
+      </c>
+      <c r="AL132">
+        <v>1</v>
+      </c>
+      <c r="AM132">
         <v>48668.635</v>
       </c>
     </row>
-    <row r="133" spans="1:36">
+    <row r="133" spans="1:39">
       <c r="A133" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -15215,15 +16412,24 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI133">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ133">
+        <v>0</v>
+      </c>
+      <c r="AK133">
+        <v>1</v>
+      </c>
+      <c r="AL133">
+        <v>1</v>
+      </c>
+      <c r="AM133">
         <v>3568.385</v>
       </c>
     </row>
-    <row r="134" spans="1:36">
+    <row r="134" spans="1:39">
       <c r="A134" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -15322,15 +16528,24 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI134">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ134">
+        <v>0</v>
+      </c>
+      <c r="AK134">
+        <v>1</v>
+      </c>
+      <c r="AL134">
+        <v>1</v>
+      </c>
+      <c r="AM134">
         <v>11435.355</v>
       </c>
     </row>
-    <row r="135" spans="1:36">
+    <row r="135" spans="1:39">
       <c r="A135" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -15429,15 +16644,24 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI135">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ135">
+        <v>0</v>
+      </c>
+      <c r="AK135">
+        <v>0</v>
+      </c>
+      <c r="AL135">
+        <v>1</v>
+      </c>
+      <c r="AM135">
         <v>93632.96000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:36">
+    <row r="136" spans="1:39">
       <c r="A136" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -15536,15 +16760,24 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI136">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ136">
+        <v>0</v>
+      </c>
+      <c r="AK136">
+        <v>1</v>
+      </c>
+      <c r="AL136">
+        <v>1</v>
+      </c>
+      <c r="AM136">
         <v>59790.915</v>
       </c>
     </row>
-    <row r="137" spans="1:36">
+    <row r="137" spans="1:39">
       <c r="A137" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -15643,15 +16876,24 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI137">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ137">
+        <v>0</v>
+      </c>
+      <c r="AK137">
+        <v>1</v>
+      </c>
+      <c r="AL137">
+        <v>1</v>
+      </c>
+      <c r="AM137">
         <v>83710.185</v>
       </c>
     </row>
-    <row r="138" spans="1:36">
+    <row r="138" spans="1:39">
       <c r="A138" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -15750,15 +16992,24 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI138">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ138">
+        <v>0</v>
+      </c>
+      <c r="AK138">
+        <v>0</v>
+      </c>
+      <c r="AL138">
+        <v>1</v>
+      </c>
+      <c r="AM138">
         <v>1637.02</v>
       </c>
     </row>
-    <row r="139" spans="1:36">
+    <row r="139" spans="1:39">
       <c r="A139" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -15857,15 +17108,24 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI139">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ139">
+        <v>0</v>
+      </c>
+      <c r="AK139">
+        <v>0</v>
+      </c>
+      <c r="AL139">
+        <v>1</v>
+      </c>
+      <c r="AM139">
         <v>25659.6</v>
       </c>
     </row>
-    <row r="140" spans="1:36">
+    <row r="140" spans="1:39">
       <c r="A140" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -15964,15 +17224,24 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI140">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ140">
+        <v>0</v>
+      </c>
+      <c r="AK140">
+        <v>0</v>
+      </c>
+      <c r="AL140">
+        <v>1</v>
+      </c>
+      <c r="AM140">
         <v>5631.325</v>
       </c>
     </row>
-    <row r="141" spans="1:36">
+    <row r="141" spans="1:39">
       <c r="A141" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -16071,15 +17340,24 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI141">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ141">
+        <v>0</v>
+      </c>
+      <c r="AK141">
+        <v>0</v>
+      </c>
+      <c r="AL141">
+        <v>1</v>
+      </c>
+      <c r="AM141">
         <v>10170.955</v>
       </c>
     </row>
-    <row r="142" spans="1:36">
+    <row r="142" spans="1:39">
       <c r="A142" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -16178,15 +17456,24 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI142">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ142">
+        <v>0</v>
+      </c>
+      <c r="AK142">
+        <v>0</v>
+      </c>
+      <c r="AL142">
+        <v>1</v>
+      </c>
+      <c r="AM142">
         <v>5949.735</v>
       </c>
     </row>
-    <row r="143" spans="1:36">
+    <row r="143" spans="1:39">
       <c r="A143" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -16285,15 +17572,24 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI143">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ143">
+        <v>0</v>
+      </c>
+      <c r="AK143">
+        <v>0</v>
+      </c>
+      <c r="AL143">
+        <v>1</v>
+      </c>
+      <c r="AM143">
         <v>4742.355</v>
       </c>
     </row>
-    <row r="144" spans="1:36">
+    <row r="144" spans="1:39">
       <c r="A144" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -16392,15 +17688,24 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI144">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ144">
+        <v>0</v>
+      </c>
+      <c r="AK144">
+        <v>0</v>
+      </c>
+      <c r="AL144">
+        <v>1</v>
+      </c>
+      <c r="AM144">
         <v>8446.950000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:36">
+    <row r="145" spans="1:39">
       <c r="A145" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -16499,15 +17804,24 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI145">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ145">
+        <v>0</v>
+      </c>
+      <c r="AK145">
+        <v>1</v>
+      </c>
+      <c r="AL145">
+        <v>1</v>
+      </c>
+      <c r="AM145">
         <v>33160.11</v>
       </c>
     </row>
-    <row r="146" spans="1:36">
+    <row r="146" spans="1:39">
       <c r="A146" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -16606,21 +17920,30 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI146">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ146">
+        <v>0</v>
+      </c>
+      <c r="AK146">
+        <v>1</v>
+      </c>
+      <c r="AL146">
+        <v>1</v>
+      </c>
+      <c r="AM146">
         <v>13131.85</v>
       </c>
     </row>
-    <row r="147" spans="1:36">
+    <row r="147" spans="1:39">
       <c r="A147" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B147">
         <v>0</v>
       </c>
       <c r="C147" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -16713,15 +18036,24 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI147">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ147">
+        <v>0</v>
+      </c>
+      <c r="AK147">
+        <v>0</v>
+      </c>
+      <c r="AL147">
+        <v>1</v>
+      </c>
+      <c r="AM147">
         <v>17542.305</v>
       </c>
     </row>
-    <row r="148" spans="1:36">
+    <row r="148" spans="1:39">
       <c r="A148" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -16820,15 +18152,24 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI148">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ148">
+        <v>0</v>
+      </c>
+      <c r="AK148">
+        <v>0</v>
+      </c>
+      <c r="AL148">
+        <v>1</v>
+      </c>
+      <c r="AM148">
         <v>5631.3</v>
       </c>
     </row>
-    <row r="149" spans="1:36">
+    <row r="149" spans="1:39">
       <c r="A149" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -16927,15 +18268,24 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI149">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ149">
+        <v>0</v>
+      </c>
+      <c r="AK149">
+        <v>0</v>
+      </c>
+      <c r="AL149">
+        <v>1</v>
+      </c>
+      <c r="AM149">
         <v>4223.475</v>
       </c>
     </row>
-    <row r="150" spans="1:36">
+    <row r="150" spans="1:39">
       <c r="A150" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -17034,15 +18384,24 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI150">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ150">
+        <v>0</v>
+      </c>
+      <c r="AK150">
+        <v>0</v>
+      </c>
+      <c r="AL150">
+        <v>1</v>
+      </c>
+      <c r="AM150">
         <v>11719.705</v>
       </c>
     </row>
-    <row r="151" spans="1:36">
+    <row r="151" spans="1:39">
       <c r="A151" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -17141,15 +18500,24 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI151">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ151">
+        <v>0</v>
+      </c>
+      <c r="AK151">
+        <v>0</v>
+      </c>
+      <c r="AL151">
+        <v>1</v>
+      </c>
+      <c r="AM151">
         <v>34885</v>
       </c>
     </row>
-    <row r="152" spans="1:36">
+    <row r="152" spans="1:39">
       <c r="A152" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -17248,15 +18616,24 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI152">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ152">
+        <v>0</v>
+      </c>
+      <c r="AK152">
+        <v>0</v>
+      </c>
+      <c r="AL152">
+        <v>1</v>
+      </c>
+      <c r="AM152">
         <v>35761</v>
       </c>
     </row>
-    <row r="153" spans="1:36">
+    <row r="153" spans="1:39">
       <c r="A153" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -17355,15 +18732,24 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI153">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ153">
+        <v>0</v>
+      </c>
+      <c r="AK153">
+        <v>1</v>
+      </c>
+      <c r="AL153">
+        <v>1</v>
+      </c>
+      <c r="AM153">
         <v>39999</v>
       </c>
     </row>
-    <row r="154" spans="1:36">
+    <row r="154" spans="1:39">
       <c r="A154" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -17462,15 +18848,24 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI154">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ154">
+        <v>0</v>
+      </c>
+      <c r="AK154">
+        <v>0</v>
+      </c>
+      <c r="AL154">
+        <v>1</v>
+      </c>
+      <c r="AM154">
         <v>41053</v>
       </c>
     </row>
-    <row r="155" spans="1:36">
+    <row r="155" spans="1:39">
       <c r="A155" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -17569,15 +18964,24 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI155">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ155">
+        <v>0</v>
+      </c>
+      <c r="AK155">
+        <v>0</v>
+      </c>
+      <c r="AL155">
+        <v>1</v>
+      </c>
+      <c r="AM155">
         <v>52665</v>
       </c>
     </row>
-    <row r="156" spans="1:36">
+    <row r="156" spans="1:39">
       <c r="A156" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -17676,15 +19080,24 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI156">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ156">
+        <v>0</v>
+      </c>
+      <c r="AK156">
+        <v>0</v>
+      </c>
+      <c r="AL156">
+        <v>1</v>
+      </c>
+      <c r="AM156">
         <v>115962</v>
       </c>
     </row>
-    <row r="157" spans="1:36">
+    <row r="157" spans="1:39">
       <c r="A157" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -17783,15 +19196,24 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI157">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ157">
+        <v>0</v>
+      </c>
+      <c r="AK157">
+        <v>1</v>
+      </c>
+      <c r="AL157">
+        <v>1</v>
+      </c>
+      <c r="AM157">
         <v>62025</v>
       </c>
     </row>
-    <row r="158" spans="1:36">
+    <row r="158" spans="1:39">
       <c r="A158" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -17890,15 +19312,24 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI158">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ158">
+        <v>0</v>
+      </c>
+      <c r="AK158">
+        <v>1</v>
+      </c>
+      <c r="AL158">
+        <v>1</v>
+      </c>
+      <c r="AM158">
         <v>24640</v>
       </c>
     </row>
-    <row r="159" spans="1:36">
+    <row r="159" spans="1:39">
       <c r="A159" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -17997,15 +19428,24 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI159">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ159">
+        <v>0</v>
+      </c>
+      <c r="AK159">
+        <v>0</v>
+      </c>
+      <c r="AL159">
+        <v>1</v>
+      </c>
+      <c r="AM159">
         <v>87780</v>
       </c>
     </row>
-    <row r="160" spans="1:36">
+    <row r="160" spans="1:39">
       <c r="A160" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -18104,15 +19544,24 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI160">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ160">
+        <v>0</v>
+      </c>
+      <c r="AK160">
+        <v>1</v>
+      </c>
+      <c r="AL160">
+        <v>1</v>
+      </c>
+      <c r="AM160">
         <v>156806</v>
       </c>
     </row>
-    <row r="161" spans="1:36">
+    <row r="161" spans="1:39">
       <c r="A161" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -18211,15 +19660,24 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI161">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ161">
+        <v>0</v>
+      </c>
+      <c r="AK161">
+        <v>0</v>
+      </c>
+      <c r="AL161">
+        <v>1</v>
+      </c>
+      <c r="AM161">
         <v>49868</v>
       </c>
     </row>
-    <row r="162" spans="1:36">
+    <row r="162" spans="1:39">
       <c r="A162" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -18318,15 +19776,24 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI162">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ162">
+        <v>0</v>
+      </c>
+      <c r="AK162">
+        <v>1</v>
+      </c>
+      <c r="AL162">
+        <v>1</v>
+      </c>
+      <c r="AM162">
         <v>89985</v>
       </c>
     </row>
-    <row r="163" spans="1:36">
+    <row r="163" spans="1:39">
       <c r="A163" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -18425,15 +19892,24 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI163">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ163">
+        <v>0</v>
+      </c>
+      <c r="AK163">
+        <v>0</v>
+      </c>
+      <c r="AL163">
+        <v>1</v>
+      </c>
+      <c r="AM163">
         <v>172843</v>
       </c>
     </row>
-    <row r="164" spans="1:36">
+    <row r="164" spans="1:39">
       <c r="A164" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -18532,15 +20008,24 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI164">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ164">
+        <v>0</v>
+      </c>
+      <c r="AK164">
+        <v>0</v>
+      </c>
+      <c r="AL164">
+        <v>1</v>
+      </c>
+      <c r="AM164">
         <v>18515</v>
       </c>
     </row>
-    <row r="165" spans="1:36">
+    <row r="165" spans="1:39">
       <c r="A165" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -18639,15 +20124,24 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI165">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ165">
+        <v>0</v>
+      </c>
+      <c r="AK165">
+        <v>0</v>
+      </c>
+      <c r="AL165">
+        <v>1</v>
+      </c>
+      <c r="AM165">
         <v>31675</v>
       </c>
     </row>
-    <row r="166" spans="1:36">
+    <row r="166" spans="1:39">
       <c r="A166" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -18746,15 +20240,24 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI166">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ166">
+        <v>0</v>
+      </c>
+      <c r="AK166">
+        <v>1</v>
+      </c>
+      <c r="AL166">
+        <v>1</v>
+      </c>
+      <c r="AM166">
         <v>10742</v>
       </c>
     </row>
-    <row r="167" spans="1:36">
+    <row r="167" spans="1:39">
       <c r="A167" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -18853,15 +20356,24 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI167">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ167">
+        <v>0</v>
+      </c>
+      <c r="AK167">
+        <v>1</v>
+      </c>
+      <c r="AL167">
+        <v>1</v>
+      </c>
+      <c r="AM167">
         <v>7734</v>
       </c>
     </row>
-    <row r="168" spans="1:36">
+    <row r="168" spans="1:39">
       <c r="A168" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -18960,15 +20472,24 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI168">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ168">
+        <v>0</v>
+      </c>
+      <c r="AK168">
+        <v>1</v>
+      </c>
+      <c r="AL168">
+        <v>1</v>
+      </c>
+      <c r="AM168">
         <v>57099</v>
       </c>
     </row>
-    <row r="169" spans="1:36">
+    <row r="169" spans="1:39">
       <c r="A169" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -19067,15 +20588,24 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI169">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ169">
+        <v>0</v>
+      </c>
+      <c r="AK169">
+        <v>0</v>
+      </c>
+      <c r="AL169">
+        <v>1</v>
+      </c>
+      <c r="AM169">
         <v>13464</v>
       </c>
     </row>
-    <row r="170" spans="1:36">
+    <row r="170" spans="1:39">
       <c r="A170" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -19174,21 +20704,30 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI170">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ170">
+        <v>0</v>
+      </c>
+      <c r="AK170">
+        <v>0</v>
+      </c>
+      <c r="AL170">
+        <v>1</v>
+      </c>
+      <c r="AM170">
         <v>3427</v>
       </c>
     </row>
-    <row r="171" spans="1:36">
+    <row r="171" spans="1:39">
       <c r="A171" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B171">
         <v>0</v>
       </c>
       <c r="C171" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -19281,15 +20820,24 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI171">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ171">
+        <v>0</v>
+      </c>
+      <c r="AK171">
+        <v>0</v>
+      </c>
+      <c r="AL171">
+        <v>1</v>
+      </c>
+      <c r="AM171">
         <v>68078</v>
       </c>
     </row>
-    <row r="172" spans="1:36">
+    <row r="172" spans="1:39">
       <c r="A172" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -19388,9 +20936,18 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI172">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ172">
+        <v>0</v>
+      </c>
+      <c r="AK172">
+        <v>0</v>
+      </c>
+      <c r="AL172">
+        <v>1</v>
+      </c>
+      <c r="AM172">
         <v>10525</v>
       </c>
     </row>

--- a/output/sed.xlsx
+++ b/output/sed.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="213">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Public_Funds_Donations</t>
+    <t>Private_Funds_Donations</t>
   </si>
   <si>
-    <t>Public_Funds_Companies</t>
+    <t>Private_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -118,6 +118,9 @@
     <t>Proporcion_Fondos_Privados</t>
   </si>
   <si>
+    <t>Proporcion_Fondos_MAE</t>
+  </si>
+  <si>
     <t>Anyo_ONG</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Colony</t>
+  </si>
+  <si>
+    <t>Delegacion</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -987,7 +993,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM172"/>
+  <dimension ref="A1:AO172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -996,7 +1002,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1114,10 +1120,16 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1174,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>1112260</v>
+        <v>1115348</v>
       </c>
       <c r="U2">
         <v>9</v>
@@ -1210,30 +1222,36 @@
         <v>4093293</v>
       </c>
       <c r="AG2">
-        <v>1812440</v>
+        <v>1815528</v>
       </c>
       <c r="AH2">
-        <v>0.6136810046125665</v>
+        <v>0.6143380878730595</v>
       </c>
       <c r="AI2">
+        <v>0.01199926412591819</v>
+      </c>
+      <c r="AJ2">
         <v>1992</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>1</v>
       </c>
       <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
         <v>57863</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1290,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1112260</v>
+        <v>1115348</v>
       </c>
       <c r="U3">
         <v>9</v>
@@ -1326,30 +1344,36 @@
         <v>2565774</v>
       </c>
       <c r="AG3">
-        <v>1812440</v>
+        <v>1815528</v>
       </c>
       <c r="AH3">
-        <v>0.6136810046125665</v>
+        <v>0.6143380878730595</v>
       </c>
       <c r="AI3">
+        <v>0.01199926412591819</v>
+      </c>
+      <c r="AJ3">
         <v>1992</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>1</v>
       </c>
       <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
         <v>167355</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1406,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1112260</v>
+        <v>1115348</v>
       </c>
       <c r="U4">
         <v>9</v>
@@ -1442,30 +1466,36 @@
         <v>3881838</v>
       </c>
       <c r="AG4">
-        <v>1812440</v>
+        <v>1815528</v>
       </c>
       <c r="AH4">
-        <v>0.6136810046125665</v>
+        <v>0.6143380878730595</v>
       </c>
       <c r="AI4">
+        <v>0.01199926412591819</v>
+      </c>
+      <c r="AJ4">
         <v>1992</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4">
         <v>1</v>
       </c>
       <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>83906</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1522,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1112260</v>
+        <v>1115348</v>
       </c>
       <c r="U5">
         <v>9</v>
@@ -1558,30 +1588,36 @@
         <v>4231773</v>
       </c>
       <c r="AG5">
-        <v>1812440</v>
+        <v>1815528</v>
       </c>
       <c r="AH5">
-        <v>0.6136810046125665</v>
+        <v>0.6143380878730595</v>
       </c>
       <c r="AI5">
+        <v>0.01199926412591819</v>
+      </c>
+      <c r="AJ5">
         <v>1992</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>1</v>
       </c>
       <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
         <v>10500</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1638,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>1112260</v>
+        <v>1115348</v>
       </c>
       <c r="U6">
         <v>9</v>
@@ -1674,30 +1710,36 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>1812440</v>
+        <v>1815528</v>
       </c>
       <c r="AH6">
-        <v>0.6136810046125665</v>
+        <v>0.6143380878730595</v>
       </c>
       <c r="AI6">
+        <v>0.01199926412591819</v>
+      </c>
+      <c r="AJ6">
         <v>1992</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6">
         <v>1</v>
       </c>
       <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
         <v>54434</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1754,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>1112260</v>
+        <v>1115348</v>
       </c>
       <c r="U7">
         <v>9</v>
@@ -1790,30 +1832,36 @@
         <v>4266738</v>
       </c>
       <c r="AG7">
-        <v>1812440</v>
+        <v>1815528</v>
       </c>
       <c r="AH7">
-        <v>0.6136810046125665</v>
+        <v>0.6143380878730595</v>
       </c>
       <c r="AI7">
+        <v>0.01199926412591819</v>
+      </c>
+      <c r="AJ7">
         <v>1992</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
       <c r="AK7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7">
         <v>1</v>
       </c>
       <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
         <v>162208</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1870,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>1112260</v>
+        <v>1115348</v>
       </c>
       <c r="U8">
         <v>9</v>
@@ -1906,30 +1954,36 @@
         <v>2282830</v>
       </c>
       <c r="AG8">
-        <v>1812440</v>
+        <v>1815528</v>
       </c>
       <c r="AH8">
-        <v>0.6136810046125665</v>
+        <v>0.6143380878730595</v>
       </c>
       <c r="AI8">
+        <v>0.01199926412591819</v>
+      </c>
+      <c r="AJ8">
         <v>1992</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8">
         <v>1</v>
       </c>
       <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
         <v>55451</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1986,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>1112260</v>
+        <v>1115348</v>
       </c>
       <c r="U9">
         <v>9</v>
@@ -2022,30 +2076,36 @@
         <v>3740606</v>
       </c>
       <c r="AG9">
-        <v>1812440</v>
+        <v>1815528</v>
       </c>
       <c r="AH9">
-        <v>0.6136810046125665</v>
+        <v>0.6143380878730595</v>
       </c>
       <c r="AI9">
+        <v>0.01199926412591819</v>
+      </c>
+      <c r="AJ9">
         <v>1992</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9">
         <v>1</v>
       </c>
       <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
         <v>71620</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2102,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>1112260</v>
+        <v>1115348</v>
       </c>
       <c r="U10">
         <v>9</v>
@@ -2138,30 +2198,36 @@
         <v>5201043</v>
       </c>
       <c r="AG10">
-        <v>1812440</v>
+        <v>1815528</v>
       </c>
       <c r="AH10">
-        <v>0.6136810046125665</v>
+        <v>0.6143380878730595</v>
       </c>
       <c r="AI10">
+        <v>0.01199926412591819</v>
+      </c>
+      <c r="AJ10">
         <v>1992</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10">
         <v>1</v>
       </c>
       <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
         <v>79496</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2218,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>1322972</v>
+        <v>1323425</v>
       </c>
       <c r="U11">
         <v>9</v>
@@ -2254,30 +2320,36 @@
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>2102969</v>
+        <v>2103422</v>
       </c>
       <c r="AH11">
-        <v>0.6290972429931206</v>
+        <v>0.6291771218519155</v>
       </c>
       <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
         <v>1992</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
       <c r="AK11">
         <v>0</v>
       </c>
       <c r="AL11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
         <v>3665</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2334,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>1322972</v>
+        <v>1323425</v>
       </c>
       <c r="U12">
         <v>9</v>
@@ -2370,30 +2442,36 @@
         <v>17422722</v>
       </c>
       <c r="AG12">
-        <v>2102969</v>
+        <v>2103422</v>
       </c>
       <c r="AH12">
-        <v>0.6290972429931206</v>
+        <v>0.6291771218519155</v>
       </c>
       <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
         <v>1992</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
       <c r="AK12">
         <v>0</v>
       </c>
       <c r="AL12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
         <v>11894</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2450,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>1322972</v>
+        <v>1323425</v>
       </c>
       <c r="U13">
         <v>9</v>
@@ -2486,30 +2564,36 @@
         <v>8942976</v>
       </c>
       <c r="AG13">
-        <v>2102969</v>
+        <v>2103422</v>
       </c>
       <c r="AH13">
-        <v>0.6290972429931206</v>
+        <v>0.6291771218519155</v>
       </c>
       <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
         <v>1992</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
       <c r="AK13">
         <v>0</v>
       </c>
       <c r="AL13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
         <v>5755</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2566,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>1322972</v>
+        <v>1323425</v>
       </c>
       <c r="U14">
         <v>9</v>
@@ -2602,30 +2686,36 @@
         <v>0</v>
       </c>
       <c r="AG14">
-        <v>2102969</v>
+        <v>2103422</v>
       </c>
       <c r="AH14">
-        <v>0.6290972429931206</v>
+        <v>0.6291771218519155</v>
       </c>
       <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
         <v>1992</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
       <c r="AK14">
         <v>0</v>
       </c>
       <c r="AL14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
         <v>16480</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2682,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1322972</v>
+        <v>1323425</v>
       </c>
       <c r="U15">
         <v>9</v>
@@ -2718,30 +2808,36 @@
         <v>0</v>
       </c>
       <c r="AG15">
-        <v>2102969</v>
+        <v>2103422</v>
       </c>
       <c r="AH15">
-        <v>0.6290972429931206</v>
+        <v>0.6291771218519155</v>
       </c>
       <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
         <v>1992</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
       <c r="AK15">
         <v>0</v>
       </c>
       <c r="AL15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
         <v>22367</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2798,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1322972</v>
+        <v>1323425</v>
       </c>
       <c r="U16">
         <v>9</v>
@@ -2834,30 +2930,36 @@
         <v>0</v>
       </c>
       <c r="AG16">
-        <v>2102969</v>
+        <v>2103422</v>
       </c>
       <c r="AH16">
-        <v>0.6290972429931206</v>
+        <v>0.6291771218519155</v>
       </c>
       <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
         <v>1992</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
       <c r="AK16">
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
         <v>48440</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2914,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1322972</v>
+        <v>1323425</v>
       </c>
       <c r="U17">
         <v>9</v>
@@ -2950,30 +3052,36 @@
         <v>0</v>
       </c>
       <c r="AG17">
-        <v>2102969</v>
+        <v>2103422</v>
       </c>
       <c r="AH17">
-        <v>0.6290972429931206</v>
+        <v>0.6291771218519155</v>
       </c>
       <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
         <v>1992</v>
       </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
       <c r="AK17">
         <v>0</v>
       </c>
       <c r="AL17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
         <v>336786</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -3030,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>1322972</v>
+        <v>1323425</v>
       </c>
       <c r="U18">
         <v>9</v>
@@ -3066,30 +3174,36 @@
         <v>0</v>
       </c>
       <c r="AG18">
-        <v>2102969</v>
+        <v>2103422</v>
       </c>
       <c r="AH18">
-        <v>0.6290972429931206</v>
+        <v>0.6291771218519155</v>
       </c>
       <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
         <v>1992</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
       <c r="AK18">
         <v>0</v>
       </c>
       <c r="AL18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
         <v>2284</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3146,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>1322972</v>
+        <v>1323425</v>
       </c>
       <c r="U19">
         <v>9</v>
@@ -3182,30 +3296,36 @@
         <v>0</v>
       </c>
       <c r="AG19">
-        <v>2102969</v>
+        <v>2103422</v>
       </c>
       <c r="AH19">
-        <v>0.6290972429931206</v>
+        <v>0.6291771218519155</v>
       </c>
       <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
         <v>1992</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
       <c r="AK19">
         <v>0</v>
       </c>
       <c r="AL19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
         <v>172778</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3262,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>1322972</v>
+        <v>1323425</v>
       </c>
       <c r="U20">
         <v>9</v>
@@ -3298,30 +3418,36 @@
         <v>0</v>
       </c>
       <c r="AG20">
-        <v>2102969</v>
+        <v>2103422</v>
       </c>
       <c r="AH20">
-        <v>0.6290972429931206</v>
+        <v>0.6291771218519155</v>
       </c>
       <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
         <v>1992</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
       <c r="AK20">
         <v>0</v>
       </c>
       <c r="AL20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
         <v>230303</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3378,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>1322972</v>
+        <v>1323425</v>
       </c>
       <c r="U21">
         <v>9</v>
@@ -3414,30 +3540,36 @@
         <v>0</v>
       </c>
       <c r="AG21">
-        <v>2102969</v>
+        <v>2103422</v>
       </c>
       <c r="AH21">
-        <v>0.6290972429931206</v>
+        <v>0.6291771218519155</v>
       </c>
       <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
         <v>1992</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
       <c r="AK21">
         <v>0</v>
       </c>
       <c r="AL21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
         <v>7788</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3494,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>1322972</v>
+        <v>1323425</v>
       </c>
       <c r="U22">
         <v>9</v>
@@ -3530,30 +3662,36 @@
         <v>0</v>
       </c>
       <c r="AG22">
-        <v>2102969</v>
+        <v>2103422</v>
       </c>
       <c r="AH22">
-        <v>0.6290972429931206</v>
+        <v>0.6291771218519155</v>
       </c>
       <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
         <v>1992</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
       <c r="AK22">
         <v>0</v>
       </c>
       <c r="AL22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
         <v>26250</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3610,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>1322972</v>
+        <v>1323425</v>
       </c>
       <c r="U23">
         <v>9</v>
@@ -3646,30 +3784,36 @@
         <v>0</v>
       </c>
       <c r="AG23">
-        <v>2102969</v>
+        <v>2103422</v>
       </c>
       <c r="AH23">
-        <v>0.6290972429931206</v>
+        <v>0.6291771218519155</v>
       </c>
       <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
         <v>1992</v>
       </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
       <c r="AK23">
         <v>0</v>
       </c>
       <c r="AL23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
         <v>95481</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3726,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="T24">
-        <v>1322972</v>
+        <v>1323425</v>
       </c>
       <c r="U24">
         <v>9</v>
@@ -3762,30 +3906,36 @@
         <v>0</v>
       </c>
       <c r="AG24">
-        <v>2102969</v>
+        <v>2103422</v>
       </c>
       <c r="AH24">
-        <v>0.6290972429931206</v>
+        <v>0.6291771218519155</v>
       </c>
       <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
         <v>1992</v>
       </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
       <c r="AK24">
         <v>0</v>
       </c>
       <c r="AL24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
         <v>714</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3842,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="T25">
-        <v>1322972</v>
+        <v>1323425</v>
       </c>
       <c r="U25">
         <v>9</v>
@@ -3878,30 +4028,36 @@
         <v>4256213</v>
       </c>
       <c r="AG25">
-        <v>2102969</v>
+        <v>2103422</v>
       </c>
       <c r="AH25">
-        <v>0.6290972429931206</v>
+        <v>0.6291771218519155</v>
       </c>
       <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
         <v>1992</v>
       </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
       <c r="AK25">
         <v>0</v>
       </c>
       <c r="AL25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
         <v>149117</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3958,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="T26">
-        <v>1322972</v>
+        <v>1323425</v>
       </c>
       <c r="U26">
         <v>9</v>
@@ -3994,30 +4150,36 @@
         <v>22208778.83333333</v>
       </c>
       <c r="AG26">
-        <v>2102969</v>
+        <v>2103422</v>
       </c>
       <c r="AH26">
-        <v>0.6290972429931206</v>
+        <v>0.6291771218519155</v>
       </c>
       <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
         <v>1992</v>
       </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
       <c r="AK26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26">
         <v>1</v>
       </c>
       <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
         <v>14333</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4074,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="T27">
-        <v>1322972</v>
+        <v>1323425</v>
       </c>
       <c r="U27">
         <v>9</v>
@@ -4110,30 +4272,36 @@
         <v>14532818.83333333</v>
       </c>
       <c r="AG27">
-        <v>2102969</v>
+        <v>2103422</v>
       </c>
       <c r="AH27">
-        <v>0.6290972429931206</v>
+        <v>0.6291771218519155</v>
       </c>
       <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
         <v>1992</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
       <c r="AK27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27">
         <v>1</v>
       </c>
       <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
         <v>203984</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -4190,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="T28">
-        <v>1322972</v>
+        <v>1323425</v>
       </c>
       <c r="U28">
         <v>9</v>
@@ -4226,30 +4394,36 @@
         <v>12175312</v>
       </c>
       <c r="AG28">
-        <v>2102969</v>
+        <v>2103422</v>
       </c>
       <c r="AH28">
-        <v>0.6290972429931206</v>
+        <v>0.6291771218519155</v>
       </c>
       <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
         <v>1992</v>
       </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
       <c r="AK28">
         <v>0</v>
       </c>
       <c r="AL28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>40095</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4306,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="T29">
-        <v>1322972</v>
+        <v>1323425</v>
       </c>
       <c r="U29">
         <v>9</v>
@@ -4342,30 +4516,36 @@
         <v>10267085.83333333</v>
       </c>
       <c r="AG29">
-        <v>2102969</v>
+        <v>2103422</v>
       </c>
       <c r="AH29">
-        <v>0.6290972429931206</v>
+        <v>0.6291771218519155</v>
       </c>
       <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
         <v>1992</v>
       </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
       <c r="AK29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29">
         <v>1</v>
       </c>
       <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
         <v>119447</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4422,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="T30">
-        <v>1322972</v>
+        <v>1323425</v>
       </c>
       <c r="U30">
         <v>9</v>
@@ -4458,30 +4638,36 @@
         <v>38993399</v>
       </c>
       <c r="AG30">
-        <v>2102969</v>
+        <v>2103422</v>
       </c>
       <c r="AH30">
-        <v>0.6290972429931206</v>
+        <v>0.6291771218519155</v>
       </c>
       <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
         <v>1992</v>
       </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
       <c r="AK30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30">
         <v>1</v>
       </c>
       <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
         <v>112486</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4538,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="T31">
-        <v>1322972</v>
+        <v>1323425</v>
       </c>
       <c r="U31">
         <v>9</v>
@@ -4574,30 +4760,36 @@
         <v>32846422</v>
       </c>
       <c r="AG31">
-        <v>2102969</v>
+        <v>2103422</v>
       </c>
       <c r="AH31">
-        <v>0.6290972429931206</v>
+        <v>0.6291771218519155</v>
       </c>
       <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
         <v>1992</v>
       </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
       <c r="AK31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31">
         <v>1</v>
       </c>
       <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
         <v>32979</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4654,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="T32">
-        <v>1322972</v>
+        <v>1323425</v>
       </c>
       <c r="U32">
         <v>9</v>
@@ -4690,30 +4882,36 @@
         <v>27999397</v>
       </c>
       <c r="AG32">
-        <v>2102969</v>
+        <v>2103422</v>
       </c>
       <c r="AH32">
-        <v>0.6290972429931206</v>
+        <v>0.6291771218519155</v>
       </c>
       <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
         <v>1992</v>
       </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
       <c r="AK32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32">
         <v>1</v>
       </c>
       <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
         <v>40134</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:41">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4770,7 +4968,7 @@
         <v>0</v>
       </c>
       <c r="T33">
-        <v>1322972</v>
+        <v>1323425</v>
       </c>
       <c r="U33">
         <v>9</v>
@@ -4806,30 +5004,36 @@
         <v>0</v>
       </c>
       <c r="AG33">
-        <v>2102969</v>
+        <v>2103422</v>
       </c>
       <c r="AH33">
-        <v>0.6290972429931206</v>
+        <v>0.6291771218519155</v>
       </c>
       <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
         <v>1992</v>
       </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
       <c r="AK33">
         <v>0</v>
       </c>
       <c r="AL33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
         <v>5250</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:41">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -4886,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="T34">
-        <v>1077647</v>
+        <v>1078144</v>
       </c>
       <c r="U34">
         <v>9</v>
@@ -4922,30 +5126,36 @@
         <v>0</v>
       </c>
       <c r="AG34">
-        <v>1689098</v>
+        <v>1689595</v>
       </c>
       <c r="AH34">
-        <v>0.6380014658711336</v>
+        <v>0.6381079489463451</v>
       </c>
       <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
         <v>1992</v>
       </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
       <c r="AK34">
         <v>0</v>
       </c>
       <c r="AL34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
         <v>1995</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:41">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -5002,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="T35">
-        <v>1077647</v>
+        <v>1078144</v>
       </c>
       <c r="U35">
         <v>9</v>
@@ -5038,30 +5248,36 @@
         <v>0</v>
       </c>
       <c r="AG35">
-        <v>1689098</v>
+        <v>1689595</v>
       </c>
       <c r="AH35">
-        <v>0.6380014658711336</v>
+        <v>0.6381079489463451</v>
       </c>
       <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
         <v>1992</v>
       </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
       <c r="AK35">
         <v>0</v>
       </c>
       <c r="AL35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
         <v>65504</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:41">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -5118,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="T36">
-        <v>1077647</v>
+        <v>1078144</v>
       </c>
       <c r="U36">
         <v>9</v>
@@ -5154,30 +5370,36 @@
         <v>0</v>
       </c>
       <c r="AG36">
-        <v>1689098</v>
+        <v>1689595</v>
       </c>
       <c r="AH36">
-        <v>0.6380014658711336</v>
+        <v>0.6381079489463451</v>
       </c>
       <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
         <v>1992</v>
       </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
       <c r="AK36">
         <v>0</v>
       </c>
       <c r="AL36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
         <v>74576</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:41">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -5234,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="T37">
-        <v>1077647</v>
+        <v>1078144</v>
       </c>
       <c r="U37">
         <v>9</v>
@@ -5270,30 +5492,36 @@
         <v>0</v>
       </c>
       <c r="AG37">
-        <v>1689098</v>
+        <v>1689595</v>
       </c>
       <c r="AH37">
-        <v>0.6380014658711336</v>
+        <v>0.6381079489463451</v>
       </c>
       <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AJ37">
         <v>1992</v>
       </c>
-      <c r="AJ37">
-        <v>0</v>
-      </c>
       <c r="AK37">
         <v>0</v>
       </c>
       <c r="AL37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
         <v>5838</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:41">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5350,7 +5578,7 @@
         <v>0</v>
       </c>
       <c r="T38">
-        <v>1077647</v>
+        <v>1078144</v>
       </c>
       <c r="U38">
         <v>9</v>
@@ -5386,30 +5614,36 @@
         <v>0</v>
       </c>
       <c r="AG38">
-        <v>1689098</v>
+        <v>1689595</v>
       </c>
       <c r="AH38">
-        <v>0.6380014658711336</v>
+        <v>0.6381079489463451</v>
       </c>
       <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
         <v>1992</v>
       </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
       <c r="AK38">
         <v>0</v>
       </c>
       <c r="AL38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
         <v>21615</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:41">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -5466,7 +5700,7 @@
         <v>0</v>
       </c>
       <c r="T39">
-        <v>1077647</v>
+        <v>1078144</v>
       </c>
       <c r="U39">
         <v>9</v>
@@ -5502,30 +5736,36 @@
         <v>0</v>
       </c>
       <c r="AG39">
-        <v>1689098</v>
+        <v>1689595</v>
       </c>
       <c r="AH39">
-        <v>0.6380014658711336</v>
+        <v>0.6381079489463451</v>
       </c>
       <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39">
         <v>1992</v>
       </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
       <c r="AK39">
         <v>0</v>
       </c>
       <c r="AL39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
         <v>4107</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:41">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -5582,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="T40">
-        <v>1077647</v>
+        <v>1078144</v>
       </c>
       <c r="U40">
         <v>9</v>
@@ -5618,30 +5858,36 @@
         <v>0</v>
       </c>
       <c r="AG40">
-        <v>1689098</v>
+        <v>1689595</v>
       </c>
       <c r="AH40">
-        <v>0.6380014658711336</v>
+        <v>0.6381079489463451</v>
       </c>
       <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40">
         <v>1992</v>
       </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
       <c r="AK40">
         <v>0</v>
       </c>
       <c r="AL40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
         <v>9834</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:41">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5698,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="T41">
-        <v>1077647</v>
+        <v>1078144</v>
       </c>
       <c r="U41">
         <v>9</v>
@@ -5734,30 +5980,36 @@
         <v>0</v>
       </c>
       <c r="AG41">
-        <v>1689098</v>
+        <v>1689595</v>
       </c>
       <c r="AH41">
-        <v>0.6380014658711336</v>
+        <v>0.6381079489463451</v>
       </c>
       <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
         <v>1992</v>
       </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
       <c r="AK41">
         <v>0</v>
       </c>
       <c r="AL41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
         <v>33587</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:41">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5814,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="T42">
-        <v>1077647</v>
+        <v>1078144</v>
       </c>
       <c r="U42">
         <v>9</v>
@@ -5850,30 +6102,36 @@
         <v>0</v>
       </c>
       <c r="AG42">
-        <v>1689098</v>
+        <v>1689595</v>
       </c>
       <c r="AH42">
-        <v>0.6380014658711336</v>
+        <v>0.6381079489463451</v>
       </c>
       <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AJ42">
         <v>1992</v>
       </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
       <c r="AK42">
         <v>0</v>
       </c>
       <c r="AL42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
         <v>92935</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:41">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5930,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="T43">
-        <v>1077647</v>
+        <v>1078144</v>
       </c>
       <c r="U43">
         <v>9</v>
@@ -5966,30 +6224,36 @@
         <v>0</v>
       </c>
       <c r="AG43">
-        <v>1689098</v>
+        <v>1689595</v>
       </c>
       <c r="AH43">
-        <v>0.6380014658711336</v>
+        <v>0.6381079489463451</v>
       </c>
       <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AJ43">
         <v>1992</v>
       </c>
-      <c r="AJ43">
-        <v>0</v>
-      </c>
       <c r="AK43">
         <v>0</v>
       </c>
       <c r="AL43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43">
+        <v>0</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
         <v>91382</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:41">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -6046,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="T44">
-        <v>1077647</v>
+        <v>1078144</v>
       </c>
       <c r="U44">
         <v>9</v>
@@ -6082,30 +6346,36 @@
         <v>2448243</v>
       </c>
       <c r="AG44">
-        <v>1689098</v>
+        <v>1689595</v>
       </c>
       <c r="AH44">
-        <v>0.6380014658711336</v>
+        <v>0.6381079489463451</v>
       </c>
       <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AJ44">
         <v>1992</v>
       </c>
-      <c r="AJ44">
-        <v>0</v>
-      </c>
       <c r="AK44">
         <v>0</v>
       </c>
       <c r="AL44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44">
+        <v>0</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
         <v>16380</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:41">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -6162,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="T45">
-        <v>1077647</v>
+        <v>1078144</v>
       </c>
       <c r="U45">
         <v>9</v>
@@ -6198,30 +6468,36 @@
         <v>0</v>
       </c>
       <c r="AG45">
-        <v>1689098</v>
+        <v>1689595</v>
       </c>
       <c r="AH45">
-        <v>0.6380014658711336</v>
+        <v>0.6381079489463451</v>
       </c>
       <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AJ45">
         <v>1992</v>
       </c>
-      <c r="AJ45">
-        <v>0</v>
-      </c>
       <c r="AK45">
         <v>0</v>
       </c>
       <c r="AL45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM45">
+        <v>0</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AO45">
         <v>3866</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:41">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -6278,7 +6554,7 @@
         <v>0</v>
       </c>
       <c r="T46">
-        <v>1077647</v>
+        <v>1078144</v>
       </c>
       <c r="U46">
         <v>9</v>
@@ -6314,30 +6590,36 @@
         <v>2407765</v>
       </c>
       <c r="AG46">
-        <v>1689098</v>
+        <v>1689595</v>
       </c>
       <c r="AH46">
-        <v>0.6380014658711336</v>
+        <v>0.6381079489463451</v>
       </c>
       <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
         <v>1992</v>
       </c>
-      <c r="AJ46">
-        <v>0</v>
-      </c>
       <c r="AK46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL46">
         <v>1</v>
       </c>
       <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
         <v>118952</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:41">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -6394,7 +6676,7 @@
         <v>0</v>
       </c>
       <c r="T47">
-        <v>1077647</v>
+        <v>1078144</v>
       </c>
       <c r="U47">
         <v>9</v>
@@ -6430,30 +6712,36 @@
         <v>2140362</v>
       </c>
       <c r="AG47">
-        <v>1689098</v>
+        <v>1689595</v>
       </c>
       <c r="AH47">
-        <v>0.6380014658711336</v>
+        <v>0.6381079489463451</v>
       </c>
       <c r="AI47">
+        <v>0</v>
+      </c>
+      <c r="AJ47">
         <v>1992</v>
       </c>
-      <c r="AJ47">
-        <v>0</v>
-      </c>
       <c r="AK47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL47">
         <v>1</v>
       </c>
       <c r="AM47">
+        <v>0</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
         <v>113276</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:41">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -6510,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="T48">
-        <v>1077647</v>
+        <v>1078144</v>
       </c>
       <c r="U48">
         <v>9</v>
@@ -6546,30 +6834,36 @@
         <v>3746015</v>
       </c>
       <c r="AG48">
-        <v>1689098</v>
+        <v>1689595</v>
       </c>
       <c r="AH48">
-        <v>0.6380014658711336</v>
+        <v>0.6381079489463451</v>
       </c>
       <c r="AI48">
+        <v>0</v>
+      </c>
+      <c r="AJ48">
         <v>1992</v>
       </c>
-      <c r="AJ48">
-        <v>0</v>
-      </c>
       <c r="AK48">
         <v>0</v>
       </c>
       <c r="AL48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
         <v>121465</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:41">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6626,7 +6920,7 @@
         <v>0</v>
       </c>
       <c r="T49">
-        <v>1077647</v>
+        <v>1078144</v>
       </c>
       <c r="U49">
         <v>9</v>
@@ -6662,30 +6956,36 @@
         <v>2070562</v>
       </c>
       <c r="AG49">
-        <v>1689098</v>
+        <v>1689595</v>
       </c>
       <c r="AH49">
-        <v>0.6380014658711336</v>
+        <v>0.6381079489463451</v>
       </c>
       <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
         <v>1992</v>
       </c>
-      <c r="AJ49">
-        <v>0</v>
-      </c>
       <c r="AK49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL49">
         <v>1</v>
       </c>
       <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
         <v>63427</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:41">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6742,7 +7042,7 @@
         <v>0</v>
       </c>
       <c r="T50">
-        <v>1077647</v>
+        <v>1078144</v>
       </c>
       <c r="U50">
         <v>9</v>
@@ -6778,30 +7078,36 @@
         <v>2121035</v>
       </c>
       <c r="AG50">
-        <v>1689098</v>
+        <v>1689595</v>
       </c>
       <c r="AH50">
-        <v>0.6380014658711336</v>
+        <v>0.6381079489463451</v>
       </c>
       <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AJ50">
         <v>1992</v>
       </c>
-      <c r="AJ50">
-        <v>0</v>
-      </c>
       <c r="AK50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL50">
         <v>1</v>
       </c>
       <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
         <v>40999</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:41">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6858,7 +7164,7 @@
         <v>0</v>
       </c>
       <c r="T51">
-        <v>1077647</v>
+        <v>1078144</v>
       </c>
       <c r="U51">
         <v>9</v>
@@ -6894,30 +7200,36 @@
         <v>2169360</v>
       </c>
       <c r="AG51">
-        <v>1689098</v>
+        <v>1689595</v>
       </c>
       <c r="AH51">
-        <v>0.6380014658711336</v>
+        <v>0.6381079489463451</v>
       </c>
       <c r="AI51">
+        <v>0</v>
+      </c>
+      <c r="AJ51">
         <v>1992</v>
       </c>
-      <c r="AJ51">
-        <v>0</v>
-      </c>
       <c r="AK51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL51">
         <v>1</v>
       </c>
       <c r="AM51">
+        <v>0</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
         <v>129332</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:41">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6974,7 +7286,7 @@
         <v>0</v>
       </c>
       <c r="T52">
-        <v>1077647</v>
+        <v>1078144</v>
       </c>
       <c r="U52">
         <v>9</v>
@@ -7010,30 +7322,36 @@
         <v>1772730</v>
       </c>
       <c r="AG52">
-        <v>1689098</v>
+        <v>1689595</v>
       </c>
       <c r="AH52">
-        <v>0.6380014658711336</v>
+        <v>0.6381079489463451</v>
       </c>
       <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AJ52">
         <v>1992</v>
       </c>
-      <c r="AJ52">
-        <v>0</v>
-      </c>
       <c r="AK52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL52">
         <v>1</v>
       </c>
       <c r="AM52">
+        <v>0</v>
+      </c>
+      <c r="AN52">
+        <v>1</v>
+      </c>
+      <c r="AO52">
         <v>37792</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:41">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -7090,7 +7408,7 @@
         <v>0</v>
       </c>
       <c r="T53">
-        <v>1077647</v>
+        <v>1078144</v>
       </c>
       <c r="U53">
         <v>9</v>
@@ -7126,30 +7444,36 @@
         <v>2299220</v>
       </c>
       <c r="AG53">
-        <v>1689098</v>
+        <v>1689595</v>
       </c>
       <c r="AH53">
-        <v>0.6380014658711336</v>
+        <v>0.6381079489463451</v>
       </c>
       <c r="AI53">
+        <v>0</v>
+      </c>
+      <c r="AJ53">
         <v>1992</v>
       </c>
-      <c r="AJ53">
-        <v>0</v>
-      </c>
       <c r="AK53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL53">
         <v>1</v>
       </c>
       <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
+      <c r="AO53">
         <v>17390</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:41">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -7206,7 +7530,7 @@
         <v>0</v>
       </c>
       <c r="T54">
-        <v>1077647</v>
+        <v>1078144</v>
       </c>
       <c r="U54">
         <v>9</v>
@@ -7242,30 +7566,36 @@
         <v>1859221</v>
       </c>
       <c r="AG54">
-        <v>1689098</v>
+        <v>1689595</v>
       </c>
       <c r="AH54">
-        <v>0.6380014658711336</v>
+        <v>0.6381079489463451</v>
       </c>
       <c r="AI54">
+        <v>0</v>
+      </c>
+      <c r="AJ54">
         <v>1992</v>
       </c>
-      <c r="AJ54">
-        <v>0</v>
-      </c>
       <c r="AK54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL54">
         <v>1</v>
       </c>
       <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AN54">
+        <v>1</v>
+      </c>
+      <c r="AO54">
         <v>73863</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:41">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -7322,7 +7652,7 @@
         <v>0</v>
       </c>
       <c r="T55">
-        <v>1077647</v>
+        <v>1078144</v>
       </c>
       <c r="U55">
         <v>9</v>
@@ -7358,30 +7688,36 @@
         <v>2304887</v>
       </c>
       <c r="AG55">
-        <v>1689098</v>
+        <v>1689595</v>
       </c>
       <c r="AH55">
-        <v>0.6380014658711336</v>
+        <v>0.6381079489463451</v>
       </c>
       <c r="AI55">
+        <v>0</v>
+      </c>
+      <c r="AJ55">
         <v>1992</v>
       </c>
-      <c r="AJ55">
-        <v>0</v>
-      </c>
       <c r="AK55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL55">
         <v>1</v>
       </c>
       <c r="AM55">
+        <v>0</v>
+      </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
+      <c r="AO55">
         <v>127326</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:41">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -7438,7 +7774,7 @@
         <v>0</v>
       </c>
       <c r="T56">
-        <v>1077647</v>
+        <v>1078144</v>
       </c>
       <c r="U56">
         <v>9</v>
@@ -7474,30 +7810,36 @@
         <v>0</v>
       </c>
       <c r="AG56">
-        <v>1689098</v>
+        <v>1689595</v>
       </c>
       <c r="AH56">
-        <v>0.6380014658711336</v>
+        <v>0.6381079489463451</v>
       </c>
       <c r="AI56">
+        <v>0</v>
+      </c>
+      <c r="AJ56">
         <v>1992</v>
       </c>
-      <c r="AJ56">
-        <v>0</v>
-      </c>
       <c r="AK56">
         <v>0</v>
       </c>
       <c r="AL56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <v>1</v>
+      </c>
+      <c r="AO56">
         <v>3884</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:41">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7554,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="T57">
-        <v>1077647</v>
+        <v>1078144</v>
       </c>
       <c r="U57">
         <v>9</v>
@@ -7590,30 +7932,36 @@
         <v>0</v>
       </c>
       <c r="AG57">
-        <v>1689098</v>
+        <v>1689595</v>
       </c>
       <c r="AH57">
-        <v>0.6380014658711336</v>
+        <v>0.6381079489463451</v>
       </c>
       <c r="AI57">
+        <v>0</v>
+      </c>
+      <c r="AJ57">
         <v>1992</v>
       </c>
-      <c r="AJ57">
-        <v>0</v>
-      </c>
       <c r="AK57">
         <v>0</v>
       </c>
       <c r="AL57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
         <v>8982</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:41">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7670,7 +8018,7 @@
         <v>0</v>
       </c>
       <c r="T58">
-        <v>1077647</v>
+        <v>1078144</v>
       </c>
       <c r="U58">
         <v>9</v>
@@ -7706,30 +8054,36 @@
         <v>0</v>
       </c>
       <c r="AG58">
-        <v>1689098</v>
+        <v>1689595</v>
       </c>
       <c r="AH58">
-        <v>0.6380014658711336</v>
+        <v>0.6381079489463451</v>
       </c>
       <c r="AI58">
+        <v>0</v>
+      </c>
+      <c r="AJ58">
         <v>1992</v>
       </c>
-      <c r="AJ58">
-        <v>0</v>
-      </c>
       <c r="AK58">
         <v>0</v>
       </c>
       <c r="AL58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM58">
+        <v>0</v>
+      </c>
+      <c r="AN58">
+        <v>1</v>
+      </c>
+      <c r="AO58">
         <v>42130</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:41">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -7828,24 +8182,30 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI59">
+        <v>0</v>
+      </c>
+      <c r="AJ59">
         <v>1992</v>
       </c>
-      <c r="AJ59">
-        <v>0</v>
-      </c>
       <c r="AK59">
         <v>0</v>
       </c>
       <c r="AL59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM59">
+        <v>0</v>
+      </c>
+      <c r="AN59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
         <v>30346.925</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:41">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -7944,24 +8304,30 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI60">
+        <v>0</v>
+      </c>
+      <c r="AJ60">
         <v>1992</v>
       </c>
-      <c r="AJ60">
-        <v>0</v>
-      </c>
       <c r="AK60">
         <v>0</v>
       </c>
       <c r="AL60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM60">
+        <v>0</v>
+      </c>
+      <c r="AN60">
+        <v>1</v>
+      </c>
+      <c r="AO60">
         <v>2825</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:41">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -8060,24 +8426,30 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI61">
+        <v>0</v>
+      </c>
+      <c r="AJ61">
         <v>1992</v>
       </c>
-      <c r="AJ61">
-        <v>0</v>
-      </c>
       <c r="AK61">
         <v>0</v>
       </c>
       <c r="AL61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM61">
+        <v>0</v>
+      </c>
+      <c r="AN61">
+        <v>1</v>
+      </c>
+      <c r="AO61">
         <v>122070.005</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:41">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -8176,24 +8548,30 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI62">
+        <v>0</v>
+      </c>
+      <c r="AJ62">
         <v>1992</v>
       </c>
-      <c r="AJ62">
-        <v>0</v>
-      </c>
       <c r="AK62">
         <v>0</v>
       </c>
       <c r="AL62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM62">
+        <v>0</v>
+      </c>
+      <c r="AN62">
+        <v>1</v>
+      </c>
+      <c r="AO62">
         <v>30726.875</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:41">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -8292,24 +8670,30 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI63">
+        <v>0</v>
+      </c>
+      <c r="AJ63">
         <v>1992</v>
       </c>
-      <c r="AJ63">
-        <v>0</v>
-      </c>
       <c r="AK63">
         <v>0</v>
       </c>
       <c r="AL63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM63">
+        <v>0</v>
+      </c>
+      <c r="AN63">
+        <v>1</v>
+      </c>
+      <c r="AO63">
         <v>67704.295</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:41">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -8408,24 +8792,30 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI64">
+        <v>0</v>
+      </c>
+      <c r="AJ64">
         <v>1992</v>
       </c>
-      <c r="AJ64">
-        <v>0</v>
-      </c>
       <c r="AK64">
         <v>0</v>
       </c>
       <c r="AL64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM64">
+        <v>0</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
         <v>2373</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:41">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -8524,24 +8914,30 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI65">
+        <v>0</v>
+      </c>
+      <c r="AJ65">
         <v>1992</v>
       </c>
-      <c r="AJ65">
-        <v>0</v>
-      </c>
       <c r="AK65">
         <v>0</v>
       </c>
       <c r="AL65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM65">
+        <v>0</v>
+      </c>
+      <c r="AN65">
+        <v>1</v>
+      </c>
+      <c r="AO65">
         <v>8701</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:41">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -8640,24 +9036,30 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI66">
+        <v>0</v>
+      </c>
+      <c r="AJ66">
         <v>1992</v>
       </c>
-      <c r="AJ66">
-        <v>0</v>
-      </c>
       <c r="AK66">
         <v>0</v>
       </c>
       <c r="AL66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM66">
+        <v>0</v>
+      </c>
+      <c r="AN66">
+        <v>1</v>
+      </c>
+      <c r="AO66">
         <v>63617.47</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:41">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -8756,24 +9158,30 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI67">
+        <v>0</v>
+      </c>
+      <c r="AJ67">
         <v>1992</v>
       </c>
-      <c r="AJ67">
-        <v>0</v>
-      </c>
       <c r="AK67">
         <v>0</v>
       </c>
       <c r="AL67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM67">
+        <v>0</v>
+      </c>
+      <c r="AN67">
+        <v>1</v>
+      </c>
+      <c r="AO67">
         <v>3319.585</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:41">
       <c r="A68" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -8872,24 +9280,30 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI68">
+        <v>0</v>
+      </c>
+      <c r="AJ68">
         <v>1992</v>
       </c>
-      <c r="AJ68">
-        <v>0</v>
-      </c>
       <c r="AK68">
         <v>0</v>
       </c>
       <c r="AL68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM68">
+        <v>0</v>
+      </c>
+      <c r="AN68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
         <v>2260</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:41">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -8988,24 +9402,30 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI69">
+        <v>0</v>
+      </c>
+      <c r="AJ69">
         <v>1992</v>
       </c>
-      <c r="AJ69">
-        <v>0</v>
-      </c>
       <c r="AK69">
         <v>0</v>
       </c>
       <c r="AL69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM69">
+        <v>0</v>
+      </c>
+      <c r="AN69">
+        <v>1</v>
+      </c>
+      <c r="AO69">
         <v>5669.21</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:41">
       <c r="A70" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -9104,24 +9524,30 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI70">
+        <v>0</v>
+      </c>
+      <c r="AJ70">
         <v>1992</v>
       </c>
-      <c r="AJ70">
-        <v>0</v>
-      </c>
       <c r="AK70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL70">
         <v>1</v>
       </c>
       <c r="AM70">
+        <v>0</v>
+      </c>
+      <c r="AN70">
+        <v>1</v>
+      </c>
+      <c r="AO70">
         <v>36612.85</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:41">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -9220,24 +9646,30 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI71">
+        <v>0</v>
+      </c>
+      <c r="AJ71">
         <v>1992</v>
       </c>
-      <c r="AJ71">
-        <v>0</v>
-      </c>
       <c r="AK71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL71">
         <v>1</v>
       </c>
       <c r="AM71">
+        <v>0</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
         <v>414.37</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:41">
       <c r="A72" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -9336,24 +9768,30 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI72">
+        <v>0</v>
+      </c>
+      <c r="AJ72">
         <v>1992</v>
       </c>
-      <c r="AJ72">
-        <v>0</v>
-      </c>
       <c r="AK72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL72">
         <v>1</v>
       </c>
       <c r="AM72">
+        <v>0</v>
+      </c>
+      <c r="AN72">
+        <v>1</v>
+      </c>
+      <c r="AO72">
         <v>20674.825</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:41">
       <c r="A73" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -9452,24 +9890,30 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI73">
+        <v>0</v>
+      </c>
+      <c r="AJ73">
         <v>1992</v>
       </c>
-      <c r="AJ73">
-        <v>0</v>
-      </c>
       <c r="AK73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL73">
         <v>1</v>
       </c>
       <c r="AM73">
+        <v>0</v>
+      </c>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
         <v>84750.815</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:41">
       <c r="A74" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -9568,24 +10012,30 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI74">
+        <v>0</v>
+      </c>
+      <c r="AJ74">
         <v>1992</v>
       </c>
-      <c r="AJ74">
-        <v>0</v>
-      </c>
       <c r="AK74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL74">
         <v>1</v>
       </c>
       <c r="AM74">
+        <v>0</v>
+      </c>
+      <c r="AN74">
+        <v>1</v>
+      </c>
+      <c r="AO74">
         <v>67123.83500000001</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:41">
       <c r="A75" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -9684,24 +10134,30 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI75">
+        <v>0</v>
+      </c>
+      <c r="AJ75">
         <v>1992</v>
       </c>
-      <c r="AJ75">
-        <v>0</v>
-      </c>
       <c r="AK75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL75">
         <v>1</v>
       </c>
       <c r="AM75">
+        <v>0</v>
+      </c>
+      <c r="AN75">
+        <v>1</v>
+      </c>
+      <c r="AO75">
         <v>22419.495</v>
       </c>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:41">
       <c r="A76" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -9800,24 +10256,30 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI76">
+        <v>0</v>
+      </c>
+      <c r="AJ76">
         <v>1992</v>
       </c>
-      <c r="AJ76">
-        <v>0</v>
-      </c>
       <c r="AK76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL76">
         <v>1</v>
       </c>
       <c r="AM76">
+        <v>0</v>
+      </c>
+      <c r="AN76">
+        <v>1</v>
+      </c>
+      <c r="AO76">
         <v>17102.835</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:41">
       <c r="A77" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -9916,24 +10378,30 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI77">
+        <v>0</v>
+      </c>
+      <c r="AJ77">
         <v>1992</v>
       </c>
-      <c r="AJ77">
-        <v>0</v>
-      </c>
       <c r="AK77">
         <v>0</v>
       </c>
       <c r="AL77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM77">
+        <v>0</v>
+      </c>
+      <c r="AN77">
+        <v>1</v>
+      </c>
+      <c r="AO77">
         <v>39435.54</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:41">
       <c r="A78" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -10032,30 +10500,36 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI78">
+        <v>0</v>
+      </c>
+      <c r="AJ78">
         <v>1992</v>
       </c>
-      <c r="AJ78">
-        <v>0</v>
-      </c>
       <c r="AK78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL78">
         <v>1</v>
       </c>
       <c r="AM78">
+        <v>0</v>
+      </c>
+      <c r="AN78">
+        <v>1</v>
+      </c>
+      <c r="AO78">
         <v>11173.44</v>
       </c>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:41">
       <c r="A79" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -10148,24 +10622,30 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI79">
+        <v>0</v>
+      </c>
+      <c r="AJ79">
         <v>1992</v>
       </c>
-      <c r="AJ79">
-        <v>0</v>
-      </c>
       <c r="AK79">
         <v>0</v>
       </c>
       <c r="AL79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM79">
+        <v>0</v>
+      </c>
+      <c r="AN79">
+        <v>1</v>
+      </c>
+      <c r="AO79">
         <v>17813.665</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:41">
       <c r="A80" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -10264,24 +10744,30 @@
         <v>0.7402706312767419</v>
       </c>
       <c r="AI80">
+        <v>0</v>
+      </c>
+      <c r="AJ80">
         <v>1992</v>
       </c>
-      <c r="AJ80">
-        <v>0</v>
-      </c>
       <c r="AK80">
         <v>0</v>
       </c>
       <c r="AL80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM80">
+        <v>0</v>
+      </c>
+      <c r="AN80">
+        <v>1</v>
+      </c>
+      <c r="AO80">
         <v>1568.1</v>
       </c>
     </row>
-    <row r="81" spans="1:39">
+    <row r="81" spans="1:41">
       <c r="A81" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -10380,24 +10866,30 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI81">
+        <v>0</v>
+      </c>
+      <c r="AJ81">
         <v>1992</v>
       </c>
-      <c r="AJ81">
-        <v>0</v>
-      </c>
       <c r="AK81">
         <v>0</v>
       </c>
       <c r="AL81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM81">
+        <v>0</v>
+      </c>
+      <c r="AN81">
+        <v>1</v>
+      </c>
+      <c r="AO81">
         <v>30346.925</v>
       </c>
     </row>
-    <row r="82" spans="1:39">
+    <row r="82" spans="1:41">
       <c r="A82" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -10496,24 +10988,30 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI82">
+        <v>0</v>
+      </c>
+      <c r="AJ82">
         <v>1992</v>
       </c>
-      <c r="AJ82">
-        <v>0</v>
-      </c>
       <c r="AK82">
         <v>0</v>
       </c>
       <c r="AL82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM82">
+        <v>0</v>
+      </c>
+      <c r="AN82">
+        <v>1</v>
+      </c>
+      <c r="AO82">
         <v>2825</v>
       </c>
     </row>
-    <row r="83" spans="1:39">
+    <row r="83" spans="1:41">
       <c r="A83" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -10612,24 +11110,30 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI83">
+        <v>0</v>
+      </c>
+      <c r="AJ83">
         <v>1992</v>
       </c>
-      <c r="AJ83">
-        <v>0</v>
-      </c>
       <c r="AK83">
         <v>0</v>
       </c>
       <c r="AL83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM83">
+        <v>0</v>
+      </c>
+      <c r="AN83">
+        <v>1</v>
+      </c>
+      <c r="AO83">
         <v>122070.005</v>
       </c>
     </row>
-    <row r="84" spans="1:39">
+    <row r="84" spans="1:41">
       <c r="A84" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -10728,24 +11232,30 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI84">
+        <v>0</v>
+      </c>
+      <c r="AJ84">
         <v>1992</v>
       </c>
-      <c r="AJ84">
-        <v>0</v>
-      </c>
       <c r="AK84">
         <v>0</v>
       </c>
       <c r="AL84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM84">
+        <v>0</v>
+      </c>
+      <c r="AN84">
+        <v>1</v>
+      </c>
+      <c r="AO84">
         <v>30726.875</v>
       </c>
     </row>
-    <row r="85" spans="1:39">
+    <row r="85" spans="1:41">
       <c r="A85" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -10844,24 +11354,30 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI85">
+        <v>0</v>
+      </c>
+      <c r="AJ85">
         <v>1992</v>
       </c>
-      <c r="AJ85">
-        <v>0</v>
-      </c>
       <c r="AK85">
         <v>0</v>
       </c>
       <c r="AL85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM85">
+        <v>0</v>
+      </c>
+      <c r="AN85">
+        <v>1</v>
+      </c>
+      <c r="AO85">
         <v>67704.295</v>
       </c>
     </row>
-    <row r="86" spans="1:39">
+    <row r="86" spans="1:41">
       <c r="A86" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -10960,24 +11476,30 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI86">
+        <v>0</v>
+      </c>
+      <c r="AJ86">
         <v>1992</v>
       </c>
-      <c r="AJ86">
-        <v>0</v>
-      </c>
       <c r="AK86">
         <v>0</v>
       </c>
       <c r="AL86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM86">
+        <v>0</v>
+      </c>
+      <c r="AN86">
+        <v>1</v>
+      </c>
+      <c r="AO86">
         <v>2373</v>
       </c>
     </row>
-    <row r="87" spans="1:39">
+    <row r="87" spans="1:41">
       <c r="A87" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -11076,24 +11598,30 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI87">
+        <v>0</v>
+      </c>
+      <c r="AJ87">
         <v>1992</v>
       </c>
-      <c r="AJ87">
-        <v>0</v>
-      </c>
       <c r="AK87">
         <v>0</v>
       </c>
       <c r="AL87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM87">
+        <v>0</v>
+      </c>
+      <c r="AN87">
+        <v>1</v>
+      </c>
+      <c r="AO87">
         <v>8701</v>
       </c>
     </row>
-    <row r="88" spans="1:39">
+    <row r="88" spans="1:41">
       <c r="A88" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -11192,24 +11720,30 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI88">
+        <v>0</v>
+      </c>
+      <c r="AJ88">
         <v>1992</v>
       </c>
-      <c r="AJ88">
-        <v>0</v>
-      </c>
       <c r="AK88">
         <v>0</v>
       </c>
       <c r="AL88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM88">
+        <v>0</v>
+      </c>
+      <c r="AN88">
+        <v>1</v>
+      </c>
+      <c r="AO88">
         <v>63617.47</v>
       </c>
     </row>
-    <row r="89" spans="1:39">
+    <row r="89" spans="1:41">
       <c r="A89" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -11308,24 +11842,30 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI89">
+        <v>0</v>
+      </c>
+      <c r="AJ89">
         <v>1992</v>
       </c>
-      <c r="AJ89">
-        <v>0</v>
-      </c>
       <c r="AK89">
         <v>0</v>
       </c>
       <c r="AL89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM89">
+        <v>0</v>
+      </c>
+      <c r="AN89">
+        <v>1</v>
+      </c>
+      <c r="AO89">
         <v>3319.585</v>
       </c>
     </row>
-    <row r="90" spans="1:39">
+    <row r="90" spans="1:41">
       <c r="A90" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -11424,24 +11964,30 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI90">
+        <v>0</v>
+      </c>
+      <c r="AJ90">
         <v>1992</v>
       </c>
-      <c r="AJ90">
-        <v>0</v>
-      </c>
       <c r="AK90">
         <v>0</v>
       </c>
       <c r="AL90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM90">
+        <v>0</v>
+      </c>
+      <c r="AN90">
+        <v>1</v>
+      </c>
+      <c r="AO90">
         <v>2260</v>
       </c>
     </row>
-    <row r="91" spans="1:39">
+    <row r="91" spans="1:41">
       <c r="A91" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -11540,24 +12086,30 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI91">
+        <v>0</v>
+      </c>
+      <c r="AJ91">
         <v>1992</v>
       </c>
-      <c r="AJ91">
-        <v>0</v>
-      </c>
       <c r="AK91">
         <v>0</v>
       </c>
       <c r="AL91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM91">
+        <v>0</v>
+      </c>
+      <c r="AN91">
+        <v>1</v>
+      </c>
+      <c r="AO91">
         <v>5669.21</v>
       </c>
     </row>
-    <row r="92" spans="1:39">
+    <row r="92" spans="1:41">
       <c r="A92" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -11656,24 +12208,30 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI92">
+        <v>0</v>
+      </c>
+      <c r="AJ92">
         <v>1992</v>
       </c>
-      <c r="AJ92">
-        <v>0</v>
-      </c>
       <c r="AK92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL92">
         <v>1</v>
       </c>
       <c r="AM92">
+        <v>0</v>
+      </c>
+      <c r="AN92">
+        <v>1</v>
+      </c>
+      <c r="AO92">
         <v>36612.85</v>
       </c>
     </row>
-    <row r="93" spans="1:39">
+    <row r="93" spans="1:41">
       <c r="A93" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -11772,24 +12330,30 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI93">
+        <v>0</v>
+      </c>
+      <c r="AJ93">
         <v>1992</v>
       </c>
-      <c r="AJ93">
-        <v>0</v>
-      </c>
       <c r="AK93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL93">
         <v>1</v>
       </c>
       <c r="AM93">
+        <v>0</v>
+      </c>
+      <c r="AN93">
+        <v>1</v>
+      </c>
+      <c r="AO93">
         <v>414.37</v>
       </c>
     </row>
-    <row r="94" spans="1:39">
+    <row r="94" spans="1:41">
       <c r="A94" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -11888,24 +12452,30 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI94">
+        <v>0</v>
+      </c>
+      <c r="AJ94">
         <v>1992</v>
       </c>
-      <c r="AJ94">
-        <v>0</v>
-      </c>
       <c r="AK94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL94">
         <v>1</v>
       </c>
       <c r="AM94">
+        <v>0</v>
+      </c>
+      <c r="AN94">
+        <v>1</v>
+      </c>
+      <c r="AO94">
         <v>20674.825</v>
       </c>
     </row>
-    <row r="95" spans="1:39">
+    <row r="95" spans="1:41">
       <c r="A95" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -12004,24 +12574,30 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI95">
+        <v>0</v>
+      </c>
+      <c r="AJ95">
         <v>1992</v>
       </c>
-      <c r="AJ95">
-        <v>0</v>
-      </c>
       <c r="AK95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL95">
         <v>1</v>
       </c>
       <c r="AM95">
+        <v>0</v>
+      </c>
+      <c r="AN95">
+        <v>1</v>
+      </c>
+      <c r="AO95">
         <v>84750.815</v>
       </c>
     </row>
-    <row r="96" spans="1:39">
+    <row r="96" spans="1:41">
       <c r="A96" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -12120,24 +12696,30 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI96">
+        <v>0</v>
+      </c>
+      <c r="AJ96">
         <v>1992</v>
       </c>
-      <c r="AJ96">
-        <v>0</v>
-      </c>
       <c r="AK96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL96">
         <v>1</v>
       </c>
       <c r="AM96">
+        <v>0</v>
+      </c>
+      <c r="AN96">
+        <v>1</v>
+      </c>
+      <c r="AO96">
         <v>67123.83500000001</v>
       </c>
     </row>
-    <row r="97" spans="1:39">
+    <row r="97" spans="1:41">
       <c r="A97" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -12236,24 +12818,30 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI97">
+        <v>0</v>
+      </c>
+      <c r="AJ97">
         <v>1992</v>
       </c>
-      <c r="AJ97">
-        <v>0</v>
-      </c>
       <c r="AK97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL97">
         <v>1</v>
       </c>
       <c r="AM97">
+        <v>0</v>
+      </c>
+      <c r="AN97">
+        <v>1</v>
+      </c>
+      <c r="AO97">
         <v>22419.495</v>
       </c>
     </row>
-    <row r="98" spans="1:39">
+    <row r="98" spans="1:41">
       <c r="A98" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -12352,24 +12940,30 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI98">
+        <v>0</v>
+      </c>
+      <c r="AJ98">
         <v>1992</v>
       </c>
-      <c r="AJ98">
-        <v>0</v>
-      </c>
       <c r="AK98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL98">
         <v>1</v>
       </c>
       <c r="AM98">
+        <v>0</v>
+      </c>
+      <c r="AN98">
+        <v>1</v>
+      </c>
+      <c r="AO98">
         <v>17102.835</v>
       </c>
     </row>
-    <row r="99" spans="1:39">
+    <row r="99" spans="1:41">
       <c r="A99" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -12468,24 +13062,30 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI99">
+        <v>0</v>
+      </c>
+      <c r="AJ99">
         <v>1992</v>
       </c>
-      <c r="AJ99">
-        <v>0</v>
-      </c>
       <c r="AK99">
         <v>0</v>
       </c>
       <c r="AL99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM99">
+        <v>0</v>
+      </c>
+      <c r="AN99">
+        <v>1</v>
+      </c>
+      <c r="AO99">
         <v>39435.54</v>
       </c>
     </row>
-    <row r="100" spans="1:39">
+    <row r="100" spans="1:41">
       <c r="A100" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -12584,30 +13184,36 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI100">
+        <v>0</v>
+      </c>
+      <c r="AJ100">
         <v>1992</v>
       </c>
-      <c r="AJ100">
-        <v>0</v>
-      </c>
       <c r="AK100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL100">
         <v>1</v>
       </c>
       <c r="AM100">
+        <v>0</v>
+      </c>
+      <c r="AN100">
+        <v>1</v>
+      </c>
+      <c r="AO100">
         <v>11173.44</v>
       </c>
     </row>
-    <row r="101" spans="1:39">
+    <row r="101" spans="1:41">
       <c r="A101" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="C101" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -12700,24 +13306,30 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI101">
+        <v>0</v>
+      </c>
+      <c r="AJ101">
         <v>1992</v>
       </c>
-      <c r="AJ101">
-        <v>0</v>
-      </c>
       <c r="AK101">
         <v>0</v>
       </c>
       <c r="AL101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM101">
+        <v>0</v>
+      </c>
+      <c r="AN101">
+        <v>1</v>
+      </c>
+      <c r="AO101">
         <v>17813.665</v>
       </c>
     </row>
-    <row r="102" spans="1:39">
+    <row r="102" spans="1:41">
       <c r="A102" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -12816,24 +13428,30 @@
         <v>0.711375827686317</v>
       </c>
       <c r="AI102">
+        <v>0</v>
+      </c>
+      <c r="AJ102">
         <v>1992</v>
       </c>
-      <c r="AJ102">
-        <v>0</v>
-      </c>
       <c r="AK102">
         <v>0</v>
       </c>
       <c r="AL102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM102">
+        <v>0</v>
+      </c>
+      <c r="AN102">
+        <v>1</v>
+      </c>
+      <c r="AO102">
         <v>1568.1</v>
       </c>
     </row>
-    <row r="103" spans="1:39">
+    <row r="103" spans="1:41">
       <c r="A103" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -12890,7 +13508,7 @@
         <v>0</v>
       </c>
       <c r="T103">
-        <v>1155856.34</v>
+        <v>1158313.42</v>
       </c>
       <c r="U103">
         <v>10</v>
@@ -12926,30 +13544,36 @@
         <v>0</v>
       </c>
       <c r="AG103">
-        <v>1375427.39</v>
+        <v>1377884.47</v>
       </c>
       <c r="AH103">
-        <v>0.8403615839001141</v>
+        <v>0.8406462553424381</v>
       </c>
       <c r="AI103">
+        <v>0</v>
+      </c>
+      <c r="AJ103">
         <v>1992</v>
       </c>
-      <c r="AJ103">
-        <v>0</v>
-      </c>
       <c r="AK103">
         <v>0</v>
       </c>
       <c r="AL103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM103">
+        <v>0</v>
+      </c>
+      <c r="AN103">
+        <v>1</v>
+      </c>
+      <c r="AO103">
         <v>24236.115</v>
       </c>
     </row>
-    <row r="104" spans="1:39">
+    <row r="104" spans="1:41">
       <c r="A104" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -13006,7 +13630,7 @@
         <v>0</v>
       </c>
       <c r="T104">
-        <v>1155856.34</v>
+        <v>1158313.42</v>
       </c>
       <c r="U104">
         <v>10</v>
@@ -13042,30 +13666,36 @@
         <v>0</v>
       </c>
       <c r="AG104">
-        <v>1375427.39</v>
+        <v>1377884.47</v>
       </c>
       <c r="AH104">
-        <v>0.8403615839001141</v>
+        <v>0.8406462553424381</v>
       </c>
       <c r="AI104">
+        <v>0</v>
+      </c>
+      <c r="AJ104">
         <v>1992</v>
       </c>
-      <c r="AJ104">
-        <v>0</v>
-      </c>
       <c r="AK104">
         <v>0</v>
       </c>
       <c r="AL104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM104">
+        <v>0</v>
+      </c>
+      <c r="AN104">
+        <v>1</v>
+      </c>
+      <c r="AO104">
         <v>9345.715</v>
       </c>
     </row>
-    <row r="105" spans="1:39">
+    <row r="105" spans="1:41">
       <c r="A105" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -13122,7 +13752,7 @@
         <v>0</v>
       </c>
       <c r="T105">
-        <v>1155856.34</v>
+        <v>1158313.42</v>
       </c>
       <c r="U105">
         <v>10</v>
@@ -13158,30 +13788,36 @@
         <v>10602689</v>
       </c>
       <c r="AG105">
-        <v>1375427.39</v>
+        <v>1377884.47</v>
       </c>
       <c r="AH105">
-        <v>0.8403615839001141</v>
+        <v>0.8406462553424381</v>
       </c>
       <c r="AI105">
+        <v>0</v>
+      </c>
+      <c r="AJ105">
         <v>1992</v>
       </c>
-      <c r="AJ105">
-        <v>0</v>
-      </c>
       <c r="AK105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL105">
         <v>1</v>
       </c>
       <c r="AM105">
+        <v>0</v>
+      </c>
+      <c r="AN105">
+        <v>1</v>
+      </c>
+      <c r="AO105">
         <v>74816.88</v>
       </c>
     </row>
-    <row r="106" spans="1:39">
+    <row r="106" spans="1:41">
       <c r="A106" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -13238,7 +13874,7 @@
         <v>0</v>
       </c>
       <c r="T106">
-        <v>1155856.34</v>
+        <v>1158313.42</v>
       </c>
       <c r="U106">
         <v>10</v>
@@ -13274,30 +13910,36 @@
         <v>0</v>
       </c>
       <c r="AG106">
-        <v>1375427.39</v>
+        <v>1377884.47</v>
       </c>
       <c r="AH106">
-        <v>0.8403615839001141</v>
+        <v>0.8406462553424381</v>
       </c>
       <c r="AI106">
+        <v>0</v>
+      </c>
+      <c r="AJ106">
         <v>1992</v>
       </c>
-      <c r="AJ106">
-        <v>0</v>
-      </c>
       <c r="AK106">
         <v>0</v>
       </c>
       <c r="AL106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM106">
+        <v>0</v>
+      </c>
+      <c r="AN106">
+        <v>1</v>
+      </c>
+      <c r="AO106">
         <v>4842.92</v>
       </c>
     </row>
-    <row r="107" spans="1:39">
+    <row r="107" spans="1:41">
       <c r="A107" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -13354,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="T107">
-        <v>1155856.34</v>
+        <v>1158313.42</v>
       </c>
       <c r="U107">
         <v>10</v>
@@ -13390,30 +14032,36 @@
         <v>0</v>
       </c>
       <c r="AG107">
-        <v>1375427.39</v>
+        <v>1377884.47</v>
       </c>
       <c r="AH107">
-        <v>0.8403615839001141</v>
+        <v>0.8406462553424381</v>
       </c>
       <c r="AI107">
+        <v>0</v>
+      </c>
+      <c r="AJ107">
         <v>1992</v>
       </c>
-      <c r="AJ107">
-        <v>0</v>
-      </c>
       <c r="AK107">
         <v>0</v>
       </c>
       <c r="AL107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM107">
+        <v>0</v>
+      </c>
+      <c r="AN107">
+        <v>1</v>
+      </c>
+      <c r="AO107">
         <v>42582.455</v>
       </c>
     </row>
-    <row r="108" spans="1:39">
+    <row r="108" spans="1:41">
       <c r="A108" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -13470,7 +14118,7 @@
         <v>0</v>
       </c>
       <c r="T108">
-        <v>1155856.34</v>
+        <v>1158313.42</v>
       </c>
       <c r="U108">
         <v>10</v>
@@ -13506,30 +14154,36 @@
         <v>0</v>
       </c>
       <c r="AG108">
-        <v>1375427.39</v>
+        <v>1377884.47</v>
       </c>
       <c r="AH108">
-        <v>0.8403615839001141</v>
+        <v>0.8406462553424381</v>
       </c>
       <c r="AI108">
+        <v>0</v>
+      </c>
+      <c r="AJ108">
         <v>1992</v>
       </c>
-      <c r="AJ108">
-        <v>0</v>
-      </c>
       <c r="AK108">
         <v>0</v>
       </c>
       <c r="AL108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM108">
+        <v>0</v>
+      </c>
+      <c r="AN108">
+        <v>1</v>
+      </c>
+      <c r="AO108">
         <v>48668.635</v>
       </c>
     </row>
-    <row r="109" spans="1:39">
+    <row r="109" spans="1:41">
       <c r="A109" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -13586,7 +14240,7 @@
         <v>0</v>
       </c>
       <c r="T109">
-        <v>1155856.34</v>
+        <v>1158313.42</v>
       </c>
       <c r="U109">
         <v>10</v>
@@ -13622,30 +14276,36 @@
         <v>6011154</v>
       </c>
       <c r="AG109">
-        <v>1375427.39</v>
+        <v>1377884.47</v>
       </c>
       <c r="AH109">
-        <v>0.8403615839001141</v>
+        <v>0.8406462553424381</v>
       </c>
       <c r="AI109">
+        <v>0</v>
+      </c>
+      <c r="AJ109">
         <v>1992</v>
       </c>
-      <c r="AJ109">
-        <v>0</v>
-      </c>
       <c r="AK109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL109">
         <v>1</v>
       </c>
       <c r="AM109">
+        <v>0</v>
+      </c>
+      <c r="AN109">
+        <v>1</v>
+      </c>
+      <c r="AO109">
         <v>3568.385</v>
       </c>
     </row>
-    <row r="110" spans="1:39">
+    <row r="110" spans="1:41">
       <c r="A110" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -13702,7 +14362,7 @@
         <v>0</v>
       </c>
       <c r="T110">
-        <v>1155856.34</v>
+        <v>1158313.42</v>
       </c>
       <c r="U110">
         <v>10</v>
@@ -13738,30 +14398,36 @@
         <v>11105000</v>
       </c>
       <c r="AG110">
-        <v>1375427.39</v>
+        <v>1377884.47</v>
       </c>
       <c r="AH110">
-        <v>0.8403615839001141</v>
+        <v>0.8406462553424381</v>
       </c>
       <c r="AI110">
+        <v>0</v>
+      </c>
+      <c r="AJ110">
         <v>1992</v>
       </c>
-      <c r="AJ110">
-        <v>0</v>
-      </c>
       <c r="AK110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL110">
         <v>1</v>
       </c>
       <c r="AM110">
+        <v>0</v>
+      </c>
+      <c r="AN110">
+        <v>1</v>
+      </c>
+      <c r="AO110">
         <v>11435.355</v>
       </c>
     </row>
-    <row r="111" spans="1:39">
+    <row r="111" spans="1:41">
       <c r="A111" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -13818,7 +14484,7 @@
         <v>0</v>
       </c>
       <c r="T111">
-        <v>1155856.34</v>
+        <v>1158313.42</v>
       </c>
       <c r="U111">
         <v>10</v>
@@ -13854,30 +14520,36 @@
         <v>0</v>
       </c>
       <c r="AG111">
-        <v>1375427.39</v>
+        <v>1377884.47</v>
       </c>
       <c r="AH111">
-        <v>0.8403615839001141</v>
+        <v>0.8406462553424381</v>
       </c>
       <c r="AI111">
+        <v>0</v>
+      </c>
+      <c r="AJ111">
         <v>1992</v>
       </c>
-      <c r="AJ111">
-        <v>0</v>
-      </c>
       <c r="AK111">
         <v>0</v>
       </c>
       <c r="AL111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM111">
+        <v>0</v>
+      </c>
+      <c r="AN111">
+        <v>1</v>
+      </c>
+      <c r="AO111">
         <v>93632.96000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:39">
+    <row r="112" spans="1:41">
       <c r="A112" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -13934,7 +14606,7 @@
         <v>0</v>
       </c>
       <c r="T112">
-        <v>1155856.34</v>
+        <v>1158313.42</v>
       </c>
       <c r="U112">
         <v>10</v>
@@ -13970,30 +14642,36 @@
         <v>6909225</v>
       </c>
       <c r="AG112">
-        <v>1375427.39</v>
+        <v>1377884.47</v>
       </c>
       <c r="AH112">
-        <v>0.8403615839001141</v>
+        <v>0.8406462553424381</v>
       </c>
       <c r="AI112">
+        <v>0</v>
+      </c>
+      <c r="AJ112">
         <v>1992</v>
       </c>
-      <c r="AJ112">
-        <v>0</v>
-      </c>
       <c r="AK112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL112">
         <v>1</v>
       </c>
       <c r="AM112">
+        <v>0</v>
+      </c>
+      <c r="AN112">
+        <v>1</v>
+      </c>
+      <c r="AO112">
         <v>59790.915</v>
       </c>
     </row>
-    <row r="113" spans="1:39">
+    <row r="113" spans="1:41">
       <c r="A113" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -14050,7 +14728,7 @@
         <v>0</v>
       </c>
       <c r="T113">
-        <v>1155856.34</v>
+        <v>1158313.42</v>
       </c>
       <c r="U113">
         <v>10</v>
@@ -14086,30 +14764,36 @@
         <v>8125000</v>
       </c>
       <c r="AG113">
-        <v>1375427.39</v>
+        <v>1377884.47</v>
       </c>
       <c r="AH113">
-        <v>0.8403615839001141</v>
+        <v>0.8406462553424381</v>
       </c>
       <c r="AI113">
+        <v>0</v>
+      </c>
+      <c r="AJ113">
         <v>1992</v>
       </c>
-      <c r="AJ113">
-        <v>0</v>
-      </c>
       <c r="AK113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL113">
         <v>1</v>
       </c>
       <c r="AM113">
+        <v>0</v>
+      </c>
+      <c r="AN113">
+        <v>1</v>
+      </c>
+      <c r="AO113">
         <v>83710.185</v>
       </c>
     </row>
-    <row r="114" spans="1:39">
+    <row r="114" spans="1:41">
       <c r="A114" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -14166,7 +14850,7 @@
         <v>0</v>
       </c>
       <c r="T114">
-        <v>1155856.34</v>
+        <v>1158313.42</v>
       </c>
       <c r="U114">
         <v>10</v>
@@ -14202,30 +14886,36 @@
         <v>0</v>
       </c>
       <c r="AG114">
-        <v>1375427.39</v>
+        <v>1377884.47</v>
       </c>
       <c r="AH114">
-        <v>0.8403615839001141</v>
+        <v>0.8406462553424381</v>
       </c>
       <c r="AI114">
+        <v>0</v>
+      </c>
+      <c r="AJ114">
         <v>1992</v>
       </c>
-      <c r="AJ114">
-        <v>0</v>
-      </c>
       <c r="AK114">
         <v>0</v>
       </c>
       <c r="AL114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM114">
+        <v>0</v>
+      </c>
+      <c r="AN114">
+        <v>1</v>
+      </c>
+      <c r="AO114">
         <v>1637.02</v>
       </c>
     </row>
-    <row r="115" spans="1:39">
+    <row r="115" spans="1:41">
       <c r="A115" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -14282,7 +14972,7 @@
         <v>0</v>
       </c>
       <c r="T115">
-        <v>1155856.34</v>
+        <v>1158313.42</v>
       </c>
       <c r="U115">
         <v>10</v>
@@ -14318,30 +15008,36 @@
         <v>0</v>
       </c>
       <c r="AG115">
-        <v>1375427.39</v>
+        <v>1377884.47</v>
       </c>
       <c r="AH115">
-        <v>0.8403615839001141</v>
+        <v>0.8406462553424381</v>
       </c>
       <c r="AI115">
+        <v>0</v>
+      </c>
+      <c r="AJ115">
         <v>1992</v>
       </c>
-      <c r="AJ115">
-        <v>0</v>
-      </c>
       <c r="AK115">
         <v>0</v>
       </c>
       <c r="AL115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM115">
+        <v>0</v>
+      </c>
+      <c r="AN115">
+        <v>1</v>
+      </c>
+      <c r="AO115">
         <v>25659.6</v>
       </c>
     </row>
-    <row r="116" spans="1:39">
+    <row r="116" spans="1:41">
       <c r="A116" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -14398,7 +15094,7 @@
         <v>0</v>
       </c>
       <c r="T116">
-        <v>1155856.34</v>
+        <v>1158313.42</v>
       </c>
       <c r="U116">
         <v>10</v>
@@ -14434,30 +15130,36 @@
         <v>0</v>
       </c>
       <c r="AG116">
-        <v>1375427.39</v>
+        <v>1377884.47</v>
       </c>
       <c r="AH116">
-        <v>0.8403615839001141</v>
+        <v>0.8406462553424381</v>
       </c>
       <c r="AI116">
+        <v>0</v>
+      </c>
+      <c r="AJ116">
         <v>1992</v>
       </c>
-      <c r="AJ116">
-        <v>0</v>
-      </c>
       <c r="AK116">
         <v>0</v>
       </c>
       <c r="AL116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM116">
+        <v>0</v>
+      </c>
+      <c r="AN116">
+        <v>1</v>
+      </c>
+      <c r="AO116">
         <v>5631.325</v>
       </c>
     </row>
-    <row r="117" spans="1:39">
+    <row r="117" spans="1:41">
       <c r="A117" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -14514,7 +15216,7 @@
         <v>0</v>
       </c>
       <c r="T117">
-        <v>1155856.34</v>
+        <v>1158313.42</v>
       </c>
       <c r="U117">
         <v>10</v>
@@ -14550,30 +15252,36 @@
         <v>0</v>
       </c>
       <c r="AG117">
-        <v>1375427.39</v>
+        <v>1377884.47</v>
       </c>
       <c r="AH117">
-        <v>0.8403615839001141</v>
+        <v>0.8406462553424381</v>
       </c>
       <c r="AI117">
+        <v>0</v>
+      </c>
+      <c r="AJ117">
         <v>1992</v>
       </c>
-      <c r="AJ117">
-        <v>0</v>
-      </c>
       <c r="AK117">
         <v>0</v>
       </c>
       <c r="AL117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM117">
+        <v>0</v>
+      </c>
+      <c r="AN117">
+        <v>1</v>
+      </c>
+      <c r="AO117">
         <v>10170.955</v>
       </c>
     </row>
-    <row r="118" spans="1:39">
+    <row r="118" spans="1:41">
       <c r="A118" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -14630,7 +15338,7 @@
         <v>0</v>
       </c>
       <c r="T118">
-        <v>1155856.34</v>
+        <v>1158313.42</v>
       </c>
       <c r="U118">
         <v>10</v>
@@ -14666,30 +15374,36 @@
         <v>0</v>
       </c>
       <c r="AG118">
-        <v>1375427.39</v>
+        <v>1377884.47</v>
       </c>
       <c r="AH118">
-        <v>0.8403615839001141</v>
+        <v>0.8406462553424381</v>
       </c>
       <c r="AI118">
+        <v>0</v>
+      </c>
+      <c r="AJ118">
         <v>1992</v>
       </c>
-      <c r="AJ118">
-        <v>0</v>
-      </c>
       <c r="AK118">
         <v>0</v>
       </c>
       <c r="AL118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM118">
+        <v>0</v>
+      </c>
+      <c r="AN118">
+        <v>1</v>
+      </c>
+      <c r="AO118">
         <v>5949.735</v>
       </c>
     </row>
-    <row r="119" spans="1:39">
+    <row r="119" spans="1:41">
       <c r="A119" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -14746,7 +15460,7 @@
         <v>0</v>
       </c>
       <c r="T119">
-        <v>1155856.34</v>
+        <v>1158313.42</v>
       </c>
       <c r="U119">
         <v>10</v>
@@ -14782,30 +15496,36 @@
         <v>8486450</v>
       </c>
       <c r="AG119">
-        <v>1375427.39</v>
+        <v>1377884.47</v>
       </c>
       <c r="AH119">
-        <v>0.8403615839001141</v>
+        <v>0.8406462553424381</v>
       </c>
       <c r="AI119">
+        <v>0</v>
+      </c>
+      <c r="AJ119">
         <v>1992</v>
       </c>
-      <c r="AJ119">
-        <v>0</v>
-      </c>
       <c r="AK119">
         <v>0</v>
       </c>
       <c r="AL119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM119">
+        <v>0</v>
+      </c>
+      <c r="AN119">
+        <v>1</v>
+      </c>
+      <c r="AO119">
         <v>4742.355</v>
       </c>
     </row>
-    <row r="120" spans="1:39">
+    <row r="120" spans="1:41">
       <c r="A120" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -14862,7 +15582,7 @@
         <v>0</v>
       </c>
       <c r="T120">
-        <v>1155856.34</v>
+        <v>1158313.42</v>
       </c>
       <c r="U120">
         <v>10</v>
@@ -14898,30 +15618,36 @@
         <v>0</v>
       </c>
       <c r="AG120">
-        <v>1375427.39</v>
+        <v>1377884.47</v>
       </c>
       <c r="AH120">
-        <v>0.8403615839001141</v>
+        <v>0.8406462553424381</v>
       </c>
       <c r="AI120">
+        <v>0</v>
+      </c>
+      <c r="AJ120">
         <v>1992</v>
       </c>
-      <c r="AJ120">
-        <v>0</v>
-      </c>
       <c r="AK120">
         <v>0</v>
       </c>
       <c r="AL120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM120">
+        <v>0</v>
+      </c>
+      <c r="AN120">
+        <v>1</v>
+      </c>
+      <c r="AO120">
         <v>8446.950000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:39">
+    <row r="121" spans="1:41">
       <c r="A121" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -14978,7 +15704,7 @@
         <v>0</v>
       </c>
       <c r="T121">
-        <v>1155856.34</v>
+        <v>1158313.42</v>
       </c>
       <c r="U121">
         <v>10</v>
@@ -15014,30 +15740,36 @@
         <v>5885000</v>
       </c>
       <c r="AG121">
-        <v>1375427.39</v>
+        <v>1377884.47</v>
       </c>
       <c r="AH121">
-        <v>0.8403615839001141</v>
+        <v>0.8406462553424381</v>
       </c>
       <c r="AI121">
+        <v>0</v>
+      </c>
+      <c r="AJ121">
         <v>1992</v>
       </c>
-      <c r="AJ121">
-        <v>0</v>
-      </c>
       <c r="AK121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL121">
         <v>1</v>
       </c>
       <c r="AM121">
+        <v>0</v>
+      </c>
+      <c r="AN121">
+        <v>1</v>
+      </c>
+      <c r="AO121">
         <v>33160.11</v>
       </c>
     </row>
-    <row r="122" spans="1:39">
+    <row r="122" spans="1:41">
       <c r="A122" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -15094,7 +15826,7 @@
         <v>0</v>
       </c>
       <c r="T122">
-        <v>1155856.34</v>
+        <v>1158313.42</v>
       </c>
       <c r="U122">
         <v>10</v>
@@ -15130,36 +15862,42 @@
         <v>6615978</v>
       </c>
       <c r="AG122">
-        <v>1375427.39</v>
+        <v>1377884.47</v>
       </c>
       <c r="AH122">
-        <v>0.8403615839001141</v>
+        <v>0.8406462553424381</v>
       </c>
       <c r="AI122">
+        <v>0</v>
+      </c>
+      <c r="AJ122">
         <v>1992</v>
       </c>
-      <c r="AJ122">
-        <v>0</v>
-      </c>
       <c r="AK122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL122">
         <v>1</v>
       </c>
       <c r="AM122">
+        <v>0</v>
+      </c>
+      <c r="AN122">
+        <v>1</v>
+      </c>
+      <c r="AO122">
         <v>13131.85</v>
       </c>
     </row>
-    <row r="123" spans="1:39">
+    <row r="123" spans="1:41">
       <c r="A123" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="C123" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -15210,7 +15948,7 @@
         <v>0</v>
       </c>
       <c r="T123">
-        <v>1155856.34</v>
+        <v>1158313.42</v>
       </c>
       <c r="U123">
         <v>10</v>
@@ -15246,30 +15984,36 @@
         <v>0</v>
       </c>
       <c r="AG123">
-        <v>1375427.39</v>
+        <v>1377884.47</v>
       </c>
       <c r="AH123">
-        <v>0.8403615839001141</v>
+        <v>0.8406462553424381</v>
       </c>
       <c r="AI123">
+        <v>0</v>
+      </c>
+      <c r="AJ123">
         <v>1992</v>
       </c>
-      <c r="AJ123">
-        <v>0</v>
-      </c>
       <c r="AK123">
         <v>0</v>
       </c>
       <c r="AL123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM123">
+        <v>0</v>
+      </c>
+      <c r="AN123">
+        <v>1</v>
+      </c>
+      <c r="AO123">
         <v>17542.305</v>
       </c>
     </row>
-    <row r="124" spans="1:39">
+    <row r="124" spans="1:41">
       <c r="A124" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -15326,7 +16070,7 @@
         <v>0</v>
       </c>
       <c r="T124">
-        <v>1155856.34</v>
+        <v>1158313.42</v>
       </c>
       <c r="U124">
         <v>10</v>
@@ -15362,30 +16106,36 @@
         <v>0</v>
       </c>
       <c r="AG124">
-        <v>1375427.39</v>
+        <v>1377884.47</v>
       </c>
       <c r="AH124">
-        <v>0.8403615839001141</v>
+        <v>0.8406462553424381</v>
       </c>
       <c r="AI124">
+        <v>0</v>
+      </c>
+      <c r="AJ124">
         <v>1992</v>
       </c>
-      <c r="AJ124">
-        <v>0</v>
-      </c>
       <c r="AK124">
         <v>0</v>
       </c>
       <c r="AL124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM124">
+        <v>0</v>
+      </c>
+      <c r="AN124">
+        <v>1</v>
+      </c>
+      <c r="AO124">
         <v>5631.3</v>
       </c>
     </row>
-    <row r="125" spans="1:39">
+    <row r="125" spans="1:41">
       <c r="A125" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -15442,7 +16192,7 @@
         <v>0</v>
       </c>
       <c r="T125">
-        <v>1155856.34</v>
+        <v>1158313.42</v>
       </c>
       <c r="U125">
         <v>10</v>
@@ -15478,30 +16228,36 @@
         <v>0</v>
       </c>
       <c r="AG125">
-        <v>1375427.39</v>
+        <v>1377884.47</v>
       </c>
       <c r="AH125">
-        <v>0.8403615839001141</v>
+        <v>0.8406462553424381</v>
       </c>
       <c r="AI125">
+        <v>0</v>
+      </c>
+      <c r="AJ125">
         <v>1992</v>
       </c>
-      <c r="AJ125">
-        <v>0</v>
-      </c>
       <c r="AK125">
         <v>0</v>
       </c>
       <c r="AL125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM125">
+        <v>0</v>
+      </c>
+      <c r="AN125">
+        <v>1</v>
+      </c>
+      <c r="AO125">
         <v>4223.475</v>
       </c>
     </row>
-    <row r="126" spans="1:39">
+    <row r="126" spans="1:41">
       <c r="A126" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -15558,7 +16314,7 @@
         <v>0</v>
       </c>
       <c r="T126">
-        <v>1155856.34</v>
+        <v>1158313.42</v>
       </c>
       <c r="U126">
         <v>10</v>
@@ -15594,30 +16350,36 @@
         <v>0</v>
       </c>
       <c r="AG126">
-        <v>1375427.39</v>
+        <v>1377884.47</v>
       </c>
       <c r="AH126">
-        <v>0.8403615839001141</v>
+        <v>0.8406462553424381</v>
       </c>
       <c r="AI126">
+        <v>0</v>
+      </c>
+      <c r="AJ126">
         <v>1992</v>
       </c>
-      <c r="AJ126">
-        <v>0</v>
-      </c>
       <c r="AK126">
         <v>0</v>
       </c>
       <c r="AL126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM126">
+        <v>0</v>
+      </c>
+      <c r="AN126">
+        <v>1</v>
+      </c>
+      <c r="AO126">
         <v>11719.705</v>
       </c>
     </row>
-    <row r="127" spans="1:39">
+    <row r="127" spans="1:41">
       <c r="A127" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -15716,24 +16478,30 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI127">
+        <v>0</v>
+      </c>
+      <c r="AJ127">
         <v>1992</v>
       </c>
-      <c r="AJ127">
-        <v>0</v>
-      </c>
       <c r="AK127">
         <v>0</v>
       </c>
       <c r="AL127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM127">
+        <v>0</v>
+      </c>
+      <c r="AN127">
+        <v>1</v>
+      </c>
+      <c r="AO127">
         <v>24236.115</v>
       </c>
     </row>
-    <row r="128" spans="1:39">
+    <row r="128" spans="1:41">
       <c r="A128" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -15832,24 +16600,30 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI128">
+        <v>0</v>
+      </c>
+      <c r="AJ128">
         <v>1992</v>
       </c>
-      <c r="AJ128">
-        <v>0</v>
-      </c>
       <c r="AK128">
         <v>0</v>
       </c>
       <c r="AL128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM128">
+        <v>0</v>
+      </c>
+      <c r="AN128">
+        <v>1</v>
+      </c>
+      <c r="AO128">
         <v>9345.715</v>
       </c>
     </row>
-    <row r="129" spans="1:39">
+    <row r="129" spans="1:41">
       <c r="A129" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -15948,24 +16722,30 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI129">
+        <v>0</v>
+      </c>
+      <c r="AJ129">
         <v>1992</v>
       </c>
-      <c r="AJ129">
-        <v>0</v>
-      </c>
       <c r="AK129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL129">
         <v>1</v>
       </c>
       <c r="AM129">
+        <v>0</v>
+      </c>
+      <c r="AN129">
+        <v>1</v>
+      </c>
+      <c r="AO129">
         <v>74816.88</v>
       </c>
     </row>
-    <row r="130" spans="1:39">
+    <row r="130" spans="1:41">
       <c r="A130" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -16064,24 +16844,30 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI130">
+        <v>0</v>
+      </c>
+      <c r="AJ130">
         <v>1992</v>
       </c>
-      <c r="AJ130">
-        <v>0</v>
-      </c>
       <c r="AK130">
         <v>0</v>
       </c>
       <c r="AL130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM130">
+        <v>0</v>
+      </c>
+      <c r="AN130">
+        <v>1</v>
+      </c>
+      <c r="AO130">
         <v>4842.92</v>
       </c>
     </row>
-    <row r="131" spans="1:39">
+    <row r="131" spans="1:41">
       <c r="A131" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -16180,24 +16966,30 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI131">
+        <v>0</v>
+      </c>
+      <c r="AJ131">
         <v>1992</v>
       </c>
-      <c r="AJ131">
-        <v>0</v>
-      </c>
       <c r="AK131">
         <v>0</v>
       </c>
       <c r="AL131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM131">
+        <v>0</v>
+      </c>
+      <c r="AN131">
+        <v>1</v>
+      </c>
+      <c r="AO131">
         <v>42582.455</v>
       </c>
     </row>
-    <row r="132" spans="1:39">
+    <row r="132" spans="1:41">
       <c r="A132" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -16296,24 +17088,30 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI132">
+        <v>0</v>
+      </c>
+      <c r="AJ132">
         <v>1992</v>
       </c>
-      <c r="AJ132">
-        <v>0</v>
-      </c>
       <c r="AK132">
         <v>0</v>
       </c>
       <c r="AL132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM132">
+        <v>0</v>
+      </c>
+      <c r="AN132">
+        <v>1</v>
+      </c>
+      <c r="AO132">
         <v>48668.635</v>
       </c>
     </row>
-    <row r="133" spans="1:39">
+    <row r="133" spans="1:41">
       <c r="A133" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -16412,24 +17210,30 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI133">
+        <v>0</v>
+      </c>
+      <c r="AJ133">
         <v>1992</v>
       </c>
-      <c r="AJ133">
-        <v>0</v>
-      </c>
       <c r="AK133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL133">
         <v>1</v>
       </c>
       <c r="AM133">
+        <v>0</v>
+      </c>
+      <c r="AN133">
+        <v>1</v>
+      </c>
+      <c r="AO133">
         <v>3568.385</v>
       </c>
     </row>
-    <row r="134" spans="1:39">
+    <row r="134" spans="1:41">
       <c r="A134" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -16528,24 +17332,30 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI134">
+        <v>0</v>
+      </c>
+      <c r="AJ134">
         <v>1992</v>
       </c>
-      <c r="AJ134">
-        <v>0</v>
-      </c>
       <c r="AK134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL134">
         <v>1</v>
       </c>
       <c r="AM134">
+        <v>0</v>
+      </c>
+      <c r="AN134">
+        <v>1</v>
+      </c>
+      <c r="AO134">
         <v>11435.355</v>
       </c>
     </row>
-    <row r="135" spans="1:39">
+    <row r="135" spans="1:41">
       <c r="A135" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -16644,24 +17454,30 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI135">
+        <v>0</v>
+      </c>
+      <c r="AJ135">
         <v>1992</v>
       </c>
-      <c r="AJ135">
-        <v>0</v>
-      </c>
       <c r="AK135">
         <v>0</v>
       </c>
       <c r="AL135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM135">
+        <v>0</v>
+      </c>
+      <c r="AN135">
+        <v>1</v>
+      </c>
+      <c r="AO135">
         <v>93632.96000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:39">
+    <row r="136" spans="1:41">
       <c r="A136" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -16760,24 +17576,30 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI136">
+        <v>0</v>
+      </c>
+      <c r="AJ136">
         <v>1992</v>
       </c>
-      <c r="AJ136">
-        <v>0</v>
-      </c>
       <c r="AK136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL136">
         <v>1</v>
       </c>
       <c r="AM136">
+        <v>0</v>
+      </c>
+      <c r="AN136">
+        <v>1</v>
+      </c>
+      <c r="AO136">
         <v>59790.915</v>
       </c>
     </row>
-    <row r="137" spans="1:39">
+    <row r="137" spans="1:41">
       <c r="A137" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -16876,24 +17698,30 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI137">
+        <v>0</v>
+      </c>
+      <c r="AJ137">
         <v>1992</v>
       </c>
-      <c r="AJ137">
-        <v>0</v>
-      </c>
       <c r="AK137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL137">
         <v>1</v>
       </c>
       <c r="AM137">
+        <v>0</v>
+      </c>
+      <c r="AN137">
+        <v>1</v>
+      </c>
+      <c r="AO137">
         <v>83710.185</v>
       </c>
     </row>
-    <row r="138" spans="1:39">
+    <row r="138" spans="1:41">
       <c r="A138" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -16992,24 +17820,30 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI138">
+        <v>0</v>
+      </c>
+      <c r="AJ138">
         <v>1992</v>
       </c>
-      <c r="AJ138">
-        <v>0</v>
-      </c>
       <c r="AK138">
         <v>0</v>
       </c>
       <c r="AL138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM138">
+        <v>0</v>
+      </c>
+      <c r="AN138">
+        <v>1</v>
+      </c>
+      <c r="AO138">
         <v>1637.02</v>
       </c>
     </row>
-    <row r="139" spans="1:39">
+    <row r="139" spans="1:41">
       <c r="A139" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -17108,24 +17942,30 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI139">
+        <v>0</v>
+      </c>
+      <c r="AJ139">
         <v>1992</v>
       </c>
-      <c r="AJ139">
-        <v>0</v>
-      </c>
       <c r="AK139">
         <v>0</v>
       </c>
       <c r="AL139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM139">
+        <v>0</v>
+      </c>
+      <c r="AN139">
+        <v>1</v>
+      </c>
+      <c r="AO139">
         <v>25659.6</v>
       </c>
     </row>
-    <row r="140" spans="1:39">
+    <row r="140" spans="1:41">
       <c r="A140" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -17224,24 +18064,30 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI140">
+        <v>0</v>
+      </c>
+      <c r="AJ140">
         <v>1992</v>
       </c>
-      <c r="AJ140">
-        <v>0</v>
-      </c>
       <c r="AK140">
         <v>0</v>
       </c>
       <c r="AL140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM140">
+        <v>0</v>
+      </c>
+      <c r="AN140">
+        <v>1</v>
+      </c>
+      <c r="AO140">
         <v>5631.325</v>
       </c>
     </row>
-    <row r="141" spans="1:39">
+    <row r="141" spans="1:41">
       <c r="A141" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -17340,24 +18186,30 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI141">
+        <v>0</v>
+      </c>
+      <c r="AJ141">
         <v>1992</v>
       </c>
-      <c r="AJ141">
-        <v>0</v>
-      </c>
       <c r="AK141">
         <v>0</v>
       </c>
       <c r="AL141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM141">
+        <v>0</v>
+      </c>
+      <c r="AN141">
+        <v>1</v>
+      </c>
+      <c r="AO141">
         <v>10170.955</v>
       </c>
     </row>
-    <row r="142" spans="1:39">
+    <row r="142" spans="1:41">
       <c r="A142" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -17456,24 +18308,30 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI142">
+        <v>0</v>
+      </c>
+      <c r="AJ142">
         <v>1992</v>
       </c>
-      <c r="AJ142">
-        <v>0</v>
-      </c>
       <c r="AK142">
         <v>0</v>
       </c>
       <c r="AL142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM142">
+        <v>0</v>
+      </c>
+      <c r="AN142">
+        <v>1</v>
+      </c>
+      <c r="AO142">
         <v>5949.735</v>
       </c>
     </row>
-    <row r="143" spans="1:39">
+    <row r="143" spans="1:41">
       <c r="A143" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -17572,24 +18430,30 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI143">
+        <v>0</v>
+      </c>
+      <c r="AJ143">
         <v>1992</v>
       </c>
-      <c r="AJ143">
-        <v>0</v>
-      </c>
       <c r="AK143">
         <v>0</v>
       </c>
       <c r="AL143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM143">
+        <v>0</v>
+      </c>
+      <c r="AN143">
+        <v>1</v>
+      </c>
+      <c r="AO143">
         <v>4742.355</v>
       </c>
     </row>
-    <row r="144" spans="1:39">
+    <row r="144" spans="1:41">
       <c r="A144" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -17688,24 +18552,30 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI144">
+        <v>0</v>
+      </c>
+      <c r="AJ144">
         <v>1992</v>
       </c>
-      <c r="AJ144">
-        <v>0</v>
-      </c>
       <c r="AK144">
         <v>0</v>
       </c>
       <c r="AL144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM144">
+        <v>0</v>
+      </c>
+      <c r="AN144">
+        <v>1</v>
+      </c>
+      <c r="AO144">
         <v>8446.950000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:39">
+    <row r="145" spans="1:41">
       <c r="A145" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -17804,24 +18674,30 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI145">
+        <v>0</v>
+      </c>
+      <c r="AJ145">
         <v>1992</v>
       </c>
-      <c r="AJ145">
-        <v>0</v>
-      </c>
       <c r="AK145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL145">
         <v>1</v>
       </c>
       <c r="AM145">
+        <v>0</v>
+      </c>
+      <c r="AN145">
+        <v>1</v>
+      </c>
+      <c r="AO145">
         <v>33160.11</v>
       </c>
     </row>
-    <row r="146" spans="1:39">
+    <row r="146" spans="1:41">
       <c r="A146" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -17920,30 +18796,36 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI146">
+        <v>0</v>
+      </c>
+      <c r="AJ146">
         <v>1992</v>
       </c>
-      <c r="AJ146">
-        <v>0</v>
-      </c>
       <c r="AK146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL146">
         <v>1</v>
       </c>
       <c r="AM146">
+        <v>0</v>
+      </c>
+      <c r="AN146">
+        <v>1</v>
+      </c>
+      <c r="AO146">
         <v>13131.85</v>
       </c>
     </row>
-    <row r="147" spans="1:39">
+    <row r="147" spans="1:41">
       <c r="A147" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B147">
         <v>0</v>
       </c>
       <c r="C147" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -18036,24 +18918,30 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI147">
+        <v>0</v>
+      </c>
+      <c r="AJ147">
         <v>1992</v>
       </c>
-      <c r="AJ147">
-        <v>0</v>
-      </c>
       <c r="AK147">
         <v>0</v>
       </c>
       <c r="AL147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM147">
+        <v>0</v>
+      </c>
+      <c r="AN147">
+        <v>1</v>
+      </c>
+      <c r="AO147">
         <v>17542.305</v>
       </c>
     </row>
-    <row r="148" spans="1:39">
+    <row r="148" spans="1:41">
       <c r="A148" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -18152,24 +19040,30 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI148">
+        <v>0</v>
+      </c>
+      <c r="AJ148">
         <v>1992</v>
       </c>
-      <c r="AJ148">
-        <v>0</v>
-      </c>
       <c r="AK148">
         <v>0</v>
       </c>
       <c r="AL148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM148">
+        <v>0</v>
+      </c>
+      <c r="AN148">
+        <v>1</v>
+      </c>
+      <c r="AO148">
         <v>5631.3</v>
       </c>
     </row>
-    <row r="149" spans="1:39">
+    <row r="149" spans="1:41">
       <c r="A149" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -18268,24 +19162,30 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI149">
+        <v>0</v>
+      </c>
+      <c r="AJ149">
         <v>1992</v>
       </c>
-      <c r="AJ149">
-        <v>0</v>
-      </c>
       <c r="AK149">
         <v>0</v>
       </c>
       <c r="AL149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM149">
+        <v>0</v>
+      </c>
+      <c r="AN149">
+        <v>1</v>
+      </c>
+      <c r="AO149">
         <v>4223.475</v>
       </c>
     </row>
-    <row r="150" spans="1:39">
+    <row r="150" spans="1:41">
       <c r="A150" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -18384,24 +19284,30 @@
         <v>0.7768773750995576</v>
       </c>
       <c r="AI150">
+        <v>0</v>
+      </c>
+      <c r="AJ150">
         <v>1992</v>
       </c>
-      <c r="AJ150">
-        <v>0</v>
-      </c>
       <c r="AK150">
         <v>0</v>
       </c>
       <c r="AL150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM150">
+        <v>0</v>
+      </c>
+      <c r="AN150">
+        <v>1</v>
+      </c>
+      <c r="AO150">
         <v>11719.705</v>
       </c>
     </row>
-    <row r="151" spans="1:39">
+    <row r="151" spans="1:41">
       <c r="A151" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -18500,24 +19406,30 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI151">
+        <v>0</v>
+      </c>
+      <c r="AJ151">
         <v>1992</v>
       </c>
-      <c r="AJ151">
-        <v>0</v>
-      </c>
       <c r="AK151">
         <v>0</v>
       </c>
       <c r="AL151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM151">
+        <v>0</v>
+      </c>
+      <c r="AN151">
+        <v>1</v>
+      </c>
+      <c r="AO151">
         <v>34885</v>
       </c>
     </row>
-    <row r="152" spans="1:39">
+    <row r="152" spans="1:41">
       <c r="A152" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -18616,24 +19528,30 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI152">
+        <v>0</v>
+      </c>
+      <c r="AJ152">
         <v>1992</v>
       </c>
-      <c r="AJ152">
-        <v>0</v>
-      </c>
       <c r="AK152">
         <v>0</v>
       </c>
       <c r="AL152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM152">
+        <v>0</v>
+      </c>
+      <c r="AN152">
+        <v>1</v>
+      </c>
+      <c r="AO152">
         <v>35761</v>
       </c>
     </row>
-    <row r="153" spans="1:39">
+    <row r="153" spans="1:41">
       <c r="A153" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -18732,24 +19650,30 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI153">
+        <v>0</v>
+      </c>
+      <c r="AJ153">
         <v>1992</v>
       </c>
-      <c r="AJ153">
-        <v>0</v>
-      </c>
       <c r="AK153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL153">
         <v>1</v>
       </c>
       <c r="AM153">
+        <v>0</v>
+      </c>
+      <c r="AN153">
+        <v>1</v>
+      </c>
+      <c r="AO153">
         <v>39999</v>
       </c>
     </row>
-    <row r="154" spans="1:39">
+    <row r="154" spans="1:41">
       <c r="A154" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -18848,24 +19772,30 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI154">
+        <v>0</v>
+      </c>
+      <c r="AJ154">
         <v>1992</v>
       </c>
-      <c r="AJ154">
-        <v>0</v>
-      </c>
       <c r="AK154">
         <v>0</v>
       </c>
       <c r="AL154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM154">
+        <v>0</v>
+      </c>
+      <c r="AN154">
+        <v>1</v>
+      </c>
+      <c r="AO154">
         <v>41053</v>
       </c>
     </row>
-    <row r="155" spans="1:39">
+    <row r="155" spans="1:41">
       <c r="A155" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -18964,24 +19894,30 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI155">
+        <v>0</v>
+      </c>
+      <c r="AJ155">
         <v>1992</v>
       </c>
-      <c r="AJ155">
-        <v>0</v>
-      </c>
       <c r="AK155">
         <v>0</v>
       </c>
       <c r="AL155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM155">
+        <v>0</v>
+      </c>
+      <c r="AN155">
+        <v>1</v>
+      </c>
+      <c r="AO155">
         <v>52665</v>
       </c>
     </row>
-    <row r="156" spans="1:39">
+    <row r="156" spans="1:41">
       <c r="A156" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -19080,24 +20016,30 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI156">
+        <v>0</v>
+      </c>
+      <c r="AJ156">
         <v>1992</v>
       </c>
-      <c r="AJ156">
-        <v>0</v>
-      </c>
       <c r="AK156">
         <v>0</v>
       </c>
       <c r="AL156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM156">
+        <v>0</v>
+      </c>
+      <c r="AN156">
+        <v>1</v>
+      </c>
+      <c r="AO156">
         <v>115962</v>
       </c>
     </row>
-    <row r="157" spans="1:39">
+    <row r="157" spans="1:41">
       <c r="A157" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -19196,24 +20138,30 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI157">
+        <v>0</v>
+      </c>
+      <c r="AJ157">
         <v>1992</v>
       </c>
-      <c r="AJ157">
-        <v>0</v>
-      </c>
       <c r="AK157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL157">
         <v>1</v>
       </c>
       <c r="AM157">
+        <v>0</v>
+      </c>
+      <c r="AN157">
+        <v>1</v>
+      </c>
+      <c r="AO157">
         <v>62025</v>
       </c>
     </row>
-    <row r="158" spans="1:39">
+    <row r="158" spans="1:41">
       <c r="A158" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -19312,24 +20260,30 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI158">
+        <v>0</v>
+      </c>
+      <c r="AJ158">
         <v>1992</v>
       </c>
-      <c r="AJ158">
-        <v>0</v>
-      </c>
       <c r="AK158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL158">
         <v>1</v>
       </c>
       <c r="AM158">
+        <v>0</v>
+      </c>
+      <c r="AN158">
+        <v>1</v>
+      </c>
+      <c r="AO158">
         <v>24640</v>
       </c>
     </row>
-    <row r="159" spans="1:39">
+    <row r="159" spans="1:41">
       <c r="A159" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -19428,24 +20382,30 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI159">
+        <v>0</v>
+      </c>
+      <c r="AJ159">
         <v>1992</v>
       </c>
-      <c r="AJ159">
-        <v>0</v>
-      </c>
       <c r="AK159">
         <v>0</v>
       </c>
       <c r="AL159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM159">
+        <v>0</v>
+      </c>
+      <c r="AN159">
+        <v>1</v>
+      </c>
+      <c r="AO159">
         <v>87780</v>
       </c>
     </row>
-    <row r="160" spans="1:39">
+    <row r="160" spans="1:41">
       <c r="A160" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -19544,24 +20504,30 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI160">
+        <v>0</v>
+      </c>
+      <c r="AJ160">
         <v>1992</v>
       </c>
-      <c r="AJ160">
-        <v>0</v>
-      </c>
       <c r="AK160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL160">
         <v>1</v>
       </c>
       <c r="AM160">
+        <v>0</v>
+      </c>
+      <c r="AN160">
+        <v>1</v>
+      </c>
+      <c r="AO160">
         <v>156806</v>
       </c>
     </row>
-    <row r="161" spans="1:39">
+    <row r="161" spans="1:41">
       <c r="A161" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -19660,24 +20626,30 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI161">
+        <v>0</v>
+      </c>
+      <c r="AJ161">
         <v>1992</v>
       </c>
-      <c r="AJ161">
-        <v>0</v>
-      </c>
       <c r="AK161">
         <v>0</v>
       </c>
       <c r="AL161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM161">
+        <v>0</v>
+      </c>
+      <c r="AN161">
+        <v>1</v>
+      </c>
+      <c r="AO161">
         <v>49868</v>
       </c>
     </row>
-    <row r="162" spans="1:39">
+    <row r="162" spans="1:41">
       <c r="A162" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -19776,24 +20748,30 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI162">
+        <v>0</v>
+      </c>
+      <c r="AJ162">
         <v>1992</v>
       </c>
-      <c r="AJ162">
-        <v>0</v>
-      </c>
       <c r="AK162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL162">
         <v>1</v>
       </c>
       <c r="AM162">
+        <v>0</v>
+      </c>
+      <c r="AN162">
+        <v>1</v>
+      </c>
+      <c r="AO162">
         <v>89985</v>
       </c>
     </row>
-    <row r="163" spans="1:39">
+    <row r="163" spans="1:41">
       <c r="A163" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -19892,24 +20870,30 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI163">
+        <v>0</v>
+      </c>
+      <c r="AJ163">
         <v>1992</v>
       </c>
-      <c r="AJ163">
-        <v>0</v>
-      </c>
       <c r="AK163">
         <v>0</v>
       </c>
       <c r="AL163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM163">
+        <v>0</v>
+      </c>
+      <c r="AN163">
+        <v>1</v>
+      </c>
+      <c r="AO163">
         <v>172843</v>
       </c>
     </row>
-    <row r="164" spans="1:39">
+    <row r="164" spans="1:41">
       <c r="A164" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -20008,24 +20992,30 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI164">
+        <v>0</v>
+      </c>
+      <c r="AJ164">
         <v>1992</v>
       </c>
-      <c r="AJ164">
-        <v>0</v>
-      </c>
       <c r="AK164">
         <v>0</v>
       </c>
       <c r="AL164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM164">
+        <v>0</v>
+      </c>
+      <c r="AN164">
+        <v>1</v>
+      </c>
+      <c r="AO164">
         <v>18515</v>
       </c>
     </row>
-    <row r="165" spans="1:39">
+    <row r="165" spans="1:41">
       <c r="A165" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -20124,24 +21114,30 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI165">
+        <v>0</v>
+      </c>
+      <c r="AJ165">
         <v>1992</v>
       </c>
-      <c r="AJ165">
-        <v>0</v>
-      </c>
       <c r="AK165">
         <v>0</v>
       </c>
       <c r="AL165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM165">
+        <v>0</v>
+      </c>
+      <c r="AN165">
+        <v>1</v>
+      </c>
+      <c r="AO165">
         <v>31675</v>
       </c>
     </row>
-    <row r="166" spans="1:39">
+    <row r="166" spans="1:41">
       <c r="A166" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -20240,24 +21236,30 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI166">
+        <v>0</v>
+      </c>
+      <c r="AJ166">
         <v>1992</v>
       </c>
-      <c r="AJ166">
-        <v>0</v>
-      </c>
       <c r="AK166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL166">
         <v>1</v>
       </c>
       <c r="AM166">
+        <v>0</v>
+      </c>
+      <c r="AN166">
+        <v>1</v>
+      </c>
+      <c r="AO166">
         <v>10742</v>
       </c>
     </row>
-    <row r="167" spans="1:39">
+    <row r="167" spans="1:41">
       <c r="A167" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -20356,24 +21358,30 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI167">
+        <v>0</v>
+      </c>
+      <c r="AJ167">
         <v>1992</v>
       </c>
-      <c r="AJ167">
-        <v>0</v>
-      </c>
       <c r="AK167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL167">
         <v>1</v>
       </c>
       <c r="AM167">
+        <v>0</v>
+      </c>
+      <c r="AN167">
+        <v>1</v>
+      </c>
+      <c r="AO167">
         <v>7734</v>
       </c>
     </row>
-    <row r="168" spans="1:39">
+    <row r="168" spans="1:41">
       <c r="A168" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -20472,24 +21480,30 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI168">
+        <v>0</v>
+      </c>
+      <c r="AJ168">
         <v>1992</v>
       </c>
-      <c r="AJ168">
-        <v>0</v>
-      </c>
       <c r="AK168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL168">
         <v>1</v>
       </c>
       <c r="AM168">
+        <v>0</v>
+      </c>
+      <c r="AN168">
+        <v>1</v>
+      </c>
+      <c r="AO168">
         <v>57099</v>
       </c>
     </row>
-    <row r="169" spans="1:39">
+    <row r="169" spans="1:41">
       <c r="A169" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -20588,24 +21602,30 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI169">
+        <v>0</v>
+      </c>
+      <c r="AJ169">
         <v>1992</v>
       </c>
-      <c r="AJ169">
-        <v>0</v>
-      </c>
       <c r="AK169">
         <v>0</v>
       </c>
       <c r="AL169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM169">
+        <v>0</v>
+      </c>
+      <c r="AN169">
+        <v>1</v>
+      </c>
+      <c r="AO169">
         <v>13464</v>
       </c>
     </row>
-    <row r="170" spans="1:39">
+    <row r="170" spans="1:41">
       <c r="A170" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -20704,30 +21724,36 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI170">
+        <v>0</v>
+      </c>
+      <c r="AJ170">
         <v>1992</v>
       </c>
-      <c r="AJ170">
-        <v>0</v>
-      </c>
       <c r="AK170">
         <v>0</v>
       </c>
       <c r="AL170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM170">
+        <v>0</v>
+      </c>
+      <c r="AN170">
+        <v>1</v>
+      </c>
+      <c r="AO170">
         <v>3427</v>
       </c>
     </row>
-    <row r="171" spans="1:39">
+    <row r="171" spans="1:41">
       <c r="A171" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B171">
         <v>0</v>
       </c>
       <c r="C171" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -20820,24 +21846,30 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI171">
+        <v>0</v>
+      </c>
+      <c r="AJ171">
         <v>1992</v>
       </c>
-      <c r="AJ171">
-        <v>0</v>
-      </c>
       <c r="AK171">
         <v>0</v>
       </c>
       <c r="AL171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM171">
+        <v>0</v>
+      </c>
+      <c r="AN171">
+        <v>1</v>
+      </c>
+      <c r="AO171">
         <v>68078</v>
       </c>
     </row>
-    <row r="172" spans="1:39">
+    <row r="172" spans="1:41">
       <c r="A172" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -20936,18 +21968,24 @@
         <v>0.6542615336534819</v>
       </c>
       <c r="AI172">
+        <v>0</v>
+      </c>
+      <c r="AJ172">
         <v>1992</v>
       </c>
-      <c r="AJ172">
-        <v>0</v>
-      </c>
       <c r="AK172">
         <v>0</v>
       </c>
       <c r="AL172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM172">
+        <v>0</v>
+      </c>
+      <c r="AN172">
+        <v>1</v>
+      </c>
+      <c r="AO172">
         <v>10525</v>
       </c>
     </row>

--- a/output/sed.xlsx
+++ b/output/sed.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
+    <t>Budget_Previous_Year</t>
   </si>
   <si>
-    <t>Vision_ONGD_LatinAmerica</t>
+    <t>LatinAmerica</t>
   </si>
   <si>
-    <t>Vision_ONGD_Africa</t>
+    <t>Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confessional</t>
+    <t>Confessional</t>
   </si>
   <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
+    <t>Donor_Aid_Budget</t>
   </si>
   <si>
-    <t>Total_Fondos</t>
+    <t>Total_Funds</t>
   </si>
   <si>
-    <t>Proporcion_Fondos_Privados</t>
+    <t>%_Private_Funds</t>
   </si>
   <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -371,9 +371,6 @@
   </si>
   <si>
     <t>2012_siria</t>
-  </si>
-  <si>
-    <t>..</t>
   </si>
   <si>
     <t>2012_hungria</t>
@@ -1135,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2820</v>
+        <v>2934.187009790061</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1257,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2620</v>
+        <v>2870.311589353206</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1379,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1620</v>
+        <v>1873.394108966653</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1501,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1380</v>
+        <v>1460.056109840828</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1623,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6800</v>
+        <v>7772.38875590225</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1745,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1620</v>
+        <v>1909.084588129339</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1867,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5130</v>
+        <v>6128.19547247793</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1989,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3450</v>
+        <v>3972.630273980753</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2111,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3970</v>
+        <v>4729.735976516416</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2233,7 +2230,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>420</v>
+        <v>471.9591970298227</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2355,7 +2352,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>480</v>
+        <v>471.181692645893</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2599,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>720</v>
+        <v>743.403784726004</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2721,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>1340</v>
+        <v>1489.459305835934</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2843,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1330</v>
+        <v>1286.515571617672</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2965,7 +2962,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>910</v>
+        <v>892.5687203369533</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -3087,7 +3084,7 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>790</v>
+        <v>1036.533951644687</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -3209,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1190</v>
+        <v>1213.112645064426</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3331,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>1230</v>
+        <v>1299.344949460393</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3453,7 +3450,7 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>460</v>
+        <v>513.4456986202239</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3575,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>2140</v>
+        <v>2292.445156190819</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3697,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>960</v>
+        <v>951.6879611168786</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3819,7 +3816,7 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>570</v>
+        <v>612.3436990512633</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3941,7 +3938,7 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>1260</v>
+        <v>1401.47747416771</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -4063,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>2890</v>
+        <v>2983.242707849043</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -4185,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>2710</v>
+        <v>2898.942214704482</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4307,7 +4304,7 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>650</v>
+        <v>665.6274194933962</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4409,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="AL28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM28">
         <v>0</v>
@@ -4429,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>1730</v>
+        <v>1904.346464968814</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4551,7 +4548,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>1780</v>
+        <v>1955.461557360978</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4673,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>4390</v>
+        <v>4633.590358399045</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -4795,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>4410</v>
+        <v>5082.354756663512</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4917,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>13170</v>
+        <v>13113.52596172773</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -5039,7 +5036,7 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>420</v>
+        <v>466.3491752969743</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -5161,7 +5158,7 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <v>1420</v>
+        <v>1525.562493537689</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -5283,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1350</v>
+        <v>1303.425880277445</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5405,7 +5402,7 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>880</v>
+        <v>863.7612548677739</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5527,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>2120</v>
+        <v>2828.483778716848</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5649,7 +5646,7 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>530</v>
+        <v>505.2384587280311</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -5771,7 +5768,7 @@
         <v>1</v>
       </c>
       <c r="C40">
-        <v>800</v>
+        <v>1037.747039954749</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -5893,7 +5890,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>1120</v>
+        <v>1132.548400540401</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -6015,7 +6012,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>1380</v>
+        <v>1446.371630707023</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -6137,7 +6134,7 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>990</v>
+        <v>982.980837581714</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -6259,7 +6256,7 @@
         <v>1</v>
       </c>
       <c r="C44">
-        <v>1480</v>
+        <v>1591.56825353313</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -6381,7 +6378,7 @@
         <v>1</v>
       </c>
       <c r="C45">
-        <v>630</v>
+        <v>864.5379000312432</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -6503,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>3060</v>
+        <v>3083.80337578809</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -6625,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>2860</v>
+        <v>2965.153206179127</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -6747,7 +6744,7 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <v>710</v>
+        <v>691.8942672110555</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -6849,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="AL48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM48">
         <v>0</v>
@@ -6869,7 +6866,7 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>1860</v>
+        <v>1939.33862702996</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -6991,7 +6988,7 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>1570</v>
+        <v>1577.487171555845</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -7113,7 +7110,7 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>1990</v>
+        <v>2024.117324382548</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -7235,7 +7232,7 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>6320</v>
+        <v>6711.616186806423</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -7357,7 +7354,7 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>4870</v>
+        <v>4921.848409120176</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -7479,7 +7476,7 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>4480</v>
+        <v>4479.398934239905</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -7601,7 +7598,7 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>4970</v>
+        <v>5360.226632400601</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -7723,7 +7720,7 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>1360</v>
+        <v>1410.426304742003</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7845,7 +7842,7 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>13150</v>
+        <v>13389.959626871</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -7967,7 +7964,7 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>8620</v>
+        <v>8415.999185225515</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -8089,7 +8086,7 @@
         <v>1</v>
       </c>
       <c r="C59">
-        <v>820</v>
+        <v>1057.667740311969</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -8211,7 +8208,7 @@
         <v>1</v>
       </c>
       <c r="C60">
-        <v>570</v>
+        <v>528.6449273841434</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -8333,7 +8330,7 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <v>960</v>
+        <v>909.3123437708064</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -8455,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>1230</v>
+        <v>1223.631935023299</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -8577,7 +8574,7 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>1540</v>
+        <v>1543.763984230257</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -8699,7 +8696,7 @@
         <v>1</v>
       </c>
       <c r="C64">
-        <v>560</v>
+        <v>564.5208442217756</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -8821,7 +8818,7 @@
         <v>1</v>
       </c>
       <c r="C65">
-        <v>1710</v>
+        <v>1745.10167474004</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -8943,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>1050</v>
+        <v>1000.829216794104</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -9065,7 +9062,7 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>810</v>
+        <v>788.439151581443</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -9187,7 +9184,7 @@
         <v>1</v>
       </c>
       <c r="C68">
-        <v>640</v>
+        <v>869.6014949562591</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -9309,7 +9306,7 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <v>1700</v>
+        <v>1591.319557098113</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -9431,7 +9428,7 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>2250</v>
+        <v>2094.024217383061</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -9553,7 +9550,7 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>5390</v>
+        <v>5122.180090208862</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -9675,7 +9672,7 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>3210</v>
+        <v>3156.723844635973</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -9797,7 +9794,7 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>3100</v>
+        <v>2999.422762626143</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -9919,7 +9916,7 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>1950</v>
+        <v>1982.009737844954</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -10041,7 +10038,7 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <v>4760</v>
+        <v>4394.543881413723</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -10163,7 +10160,7 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>5790</v>
+        <v>5642.578115155247</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -10285,7 +10282,7 @@
         <v>1</v>
       </c>
       <c r="C77">
-        <v>970</v>
+        <v>865.7498910537106</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -10407,7 +10404,7 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <v>2970</v>
+        <v>2379.668184479739</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -10528,8 +10525,8 @@
       <c r="B79">
         <v>0</v>
       </c>
-      <c r="C79" t="s">
-        <v>119</v>
+      <c r="C79">
+        <v>0</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -10645,13 +10642,13 @@
     </row>
     <row r="80" spans="1:41">
       <c r="A80" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80">
-        <v>12970</v>
+        <v>13261.19696291444</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -10767,13 +10764,13 @@
     </row>
     <row r="81" spans="1:41">
       <c r="A81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
       <c r="C81">
-        <v>890</v>
+        <v>1102.527430026863</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -10889,13 +10886,13 @@
     </row>
     <row r="82" spans="1:41">
       <c r="A82" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
       <c r="C82">
-        <v>380</v>
+        <v>335.38915520098</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -11011,13 +11008,13 @@
     </row>
     <row r="83" spans="1:41">
       <c r="A83" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
       <c r="C83">
-        <v>970</v>
+        <v>929.4690557368662</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -11133,13 +11130,13 @@
     </row>
     <row r="84" spans="1:41">
       <c r="A84" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84">
-        <v>1320</v>
+        <v>1299.811672673934</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -11255,13 +11252,13 @@
     </row>
     <row r="85" spans="1:41">
       <c r="A85" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85">
-        <v>1870</v>
+        <v>1618.597849849475</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -11377,13 +11374,13 @@
     </row>
     <row r="86" spans="1:41">
       <c r="A86" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
       <c r="C86">
-        <v>630</v>
+        <v>597.3813896804552</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -11499,13 +11496,13 @@
     </row>
     <row r="87" spans="1:41">
       <c r="A87" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
       <c r="C87">
-        <v>1210</v>
+        <v>1778.60982580794</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -11621,13 +11618,13 @@
     </row>
     <row r="88" spans="1:41">
       <c r="A88" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88">
-        <v>1130</v>
+        <v>1032.277326842402</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -11743,13 +11740,13 @@
     </row>
     <row r="89" spans="1:41">
       <c r="A89" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>890</v>
+        <v>817.1226340535979</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -11865,13 +11862,13 @@
     </row>
     <row r="90" spans="1:41">
       <c r="A90" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B90">
         <v>1</v>
       </c>
       <c r="C90">
-        <v>650</v>
+        <v>872.1235974568563</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -11987,13 +11984,13 @@
     </row>
     <row r="91" spans="1:41">
       <c r="A91" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
       <c r="C91">
-        <v>1760</v>
+        <v>1620.124515672545</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -12109,13 +12106,13 @@
     </row>
     <row r="92" spans="1:41">
       <c r="A92" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>2590</v>
+        <v>2201.396847776877</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -12231,13 +12228,13 @@
     </row>
     <row r="93" spans="1:41">
       <c r="A93" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93">
-        <v>5810</v>
+        <v>5295.682695961288</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -12353,13 +12350,13 @@
     </row>
     <row r="94" spans="1:41">
       <c r="A94" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="C94">
-        <v>3350</v>
+        <v>3212.740625904757</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -12475,13 +12472,13 @@
     </row>
     <row r="95" spans="1:41">
       <c r="A95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="C95">
-        <v>3320</v>
+        <v>3056.152683606517</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -12597,13 +12594,13 @@
     </row>
     <row r="96" spans="1:41">
       <c r="A96" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="C96">
-        <v>1990</v>
+        <v>2000.792448761861</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -12719,13 +12716,13 @@
     </row>
     <row r="97" spans="1:41">
       <c r="A97" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97">
-        <v>5510</v>
+        <v>4699.493713911862</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -12841,13 +12838,13 @@
     </row>
     <row r="98" spans="1:41">
       <c r="A98" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98">
-        <v>6420</v>
+        <v>5919.20956823756</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -12963,13 +12960,13 @@
     </row>
     <row r="99" spans="1:41">
       <c r="A99" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B99">
         <v>1</v>
       </c>
       <c r="C99">
-        <v>1040</v>
+        <v>907.2574180443885</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -13085,13 +13082,13 @@
     </row>
     <row r="100" spans="1:41">
       <c r="A100" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="C100">
-        <v>3290</v>
+        <v>2497.68592515536</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -13207,13 +13204,13 @@
     </row>
     <row r="101" spans="1:41">
       <c r="A101" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
-      <c r="C101" t="s">
-        <v>119</v>
+      <c r="C101">
+        <v>0</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -13329,13 +13326,13 @@
     </row>
     <row r="102" spans="1:41">
       <c r="A102" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
       <c r="C102">
-        <v>13480</v>
+        <v>13558.79747639988</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -13451,13 +13448,13 @@
     </row>
     <row r="103" spans="1:41">
       <c r="A103" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B103">
         <v>1</v>
       </c>
       <c r="C103">
-        <v>1110</v>
+        <v>951.3148210424945</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -13573,13 +13570,13 @@
     </row>
     <row r="104" spans="1:41">
       <c r="A104" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B104">
         <v>1</v>
       </c>
       <c r="C104">
-        <v>930</v>
+        <v>1140.447753778042</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -13695,13 +13692,13 @@
     </row>
     <row r="105" spans="1:41">
       <c r="A105" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="C105">
-        <v>2830</v>
+        <v>2286.013198234259</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -13817,13 +13814,13 @@
     </row>
     <row r="106" spans="1:41">
       <c r="A106" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="C106">
-        <v>1480</v>
+        <v>1401.753174264641</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -13939,13 +13936,13 @@
     </row>
     <row r="107" spans="1:41">
       <c r="A107" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
       <c r="C107">
-        <v>980</v>
+        <v>961.3778847738438</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -14061,13 +14058,13 @@
     </row>
     <row r="108" spans="1:41">
       <c r="A108" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
       <c r="C108">
-        <v>1450</v>
+        <v>1379.14068216006</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -14183,13 +14180,13 @@
     </row>
     <row r="109" spans="1:41">
       <c r="A109" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="C109">
-        <v>6110</v>
+        <v>5412.131646018807</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -14305,13 +14302,13 @@
     </row>
     <row r="110" spans="1:41">
       <c r="A110" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
       <c r="C110">
-        <v>3400</v>
+        <v>3252.634165082374</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -14427,13 +14424,13 @@
     </row>
     <row r="111" spans="1:41">
       <c r="A111" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
       <c r="C111">
-        <v>1920</v>
+        <v>1627.760281433693</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -14549,13 +14546,13 @@
     </row>
     <row r="112" spans="1:41">
       <c r="A112" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
       <c r="C112">
-        <v>3460</v>
+        <v>3137.260298393558</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -14671,13 +14668,13 @@
     </row>
     <row r="113" spans="1:41">
       <c r="A113" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
       <c r="C113">
-        <v>1990</v>
+        <v>2025.814194788851</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -14793,13 +14790,13 @@
     </row>
     <row r="114" spans="1:41">
       <c r="A114" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="C114">
-        <v>1560</v>
+        <v>1640.18070024053</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -14915,13 +14912,13 @@
     </row>
     <row r="115" spans="1:41">
       <c r="A115" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
       <c r="C115">
-        <v>1240</v>
+        <v>1060.095015975378</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -15037,13 +15034,13 @@
     </row>
     <row r="116" spans="1:41">
       <c r="A116" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="C116">
-        <v>7500</v>
+        <v>6753.607115829548</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -15159,13 +15156,13 @@
     </row>
     <row r="117" spans="1:41">
       <c r="A117" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
       <c r="C117">
-        <v>630</v>
+        <v>586.2293607842975</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -15281,13 +15278,13 @@
     </row>
     <row r="118" spans="1:41">
       <c r="A118" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B118">
         <v>1</v>
       </c>
       <c r="C118">
-        <v>440</v>
+        <v>468.1130345750273</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -15403,13 +15400,13 @@
     </row>
     <row r="119" spans="1:41">
       <c r="A119" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B119">
         <v>1</v>
       </c>
       <c r="C119">
-        <v>650</v>
+        <v>558.2093442539386</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -15525,13 +15522,13 @@
     </row>
     <row r="120" spans="1:41">
       <c r="A120" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B120">
         <v>1</v>
       </c>
       <c r="C120">
-        <v>770</v>
+        <v>711.3043470146426</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -15647,13 +15644,13 @@
     </row>
     <row r="121" spans="1:41">
       <c r="A121" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
       <c r="C121">
-        <v>5780</v>
+        <v>4861.287098802361</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -15769,13 +15766,13 @@
     </row>
     <row r="122" spans="1:41">
       <c r="A122" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
       <c r="C122">
-        <v>6530</v>
+        <v>5996.49696468919</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -15891,13 +15888,13 @@
     </row>
     <row r="123" spans="1:41">
       <c r="A123" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
-      <c r="C123" t="s">
-        <v>119</v>
+      <c r="C123">
+        <v>0</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -16013,13 +16010,13 @@
     </row>
     <row r="124" spans="1:41">
       <c r="A124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
       <c r="C124">
-        <v>6750</v>
+        <v>7582.696928894958</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -16135,13 +16132,13 @@
     </row>
     <row r="125" spans="1:41">
       <c r="A125" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
       <c r="C125">
-        <v>970</v>
+        <v>846.386841468855</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -16257,13 +16254,13 @@
     </row>
     <row r="126" spans="1:41">
       <c r="A126" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B126">
         <v>1</v>
       </c>
       <c r="C126">
-        <v>1800</v>
+        <v>1644.106712405582</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -16379,13 +16376,13 @@
     </row>
     <row r="127" spans="1:41">
       <c r="A127" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
       <c r="C127">
-        <v>1220</v>
+        <v>1002.388731936373</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -16501,13 +16498,13 @@
     </row>
     <row r="128" spans="1:41">
       <c r="A128" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B128">
         <v>0</v>
       </c>
       <c r="C128">
-        <v>860</v>
+        <v>1128.996380299766</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -16623,13 +16620,13 @@
     </row>
     <row r="129" spans="1:41">
       <c r="A129" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B129">
         <v>0</v>
       </c>
       <c r="C129">
-        <v>2960</v>
+        <v>2361.056581219794</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -16745,13 +16742,13 @@
     </row>
     <row r="130" spans="1:41">
       <c r="A130" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
       <c r="C130">
-        <v>1440</v>
+        <v>1441.783971398429</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -16867,13 +16864,13 @@
     </row>
     <row r="131" spans="1:41">
       <c r="A131" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
       <c r="C131">
-        <v>880</v>
+        <v>956.659691840205</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -16989,13 +16986,13 @@
     </row>
     <row r="132" spans="1:41">
       <c r="A132" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B132">
         <v>0</v>
       </c>
       <c r="C132">
-        <v>1480</v>
+        <v>1463.71052702022</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -17111,13 +17108,13 @@
     </row>
     <row r="133" spans="1:41">
       <c r="A133" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
       <c r="C133">
-        <v>5970</v>
+        <v>5330.539154475424</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -17233,13 +17230,13 @@
     </row>
     <row r="134" spans="1:41">
       <c r="A134" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B134">
         <v>0</v>
       </c>
       <c r="C134">
-        <v>3440</v>
+        <v>3314.741082534716</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -17355,13 +17352,13 @@
     </row>
     <row r="135" spans="1:41">
       <c r="A135" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B135">
         <v>0</v>
       </c>
       <c r="C135">
-        <v>1960</v>
+        <v>1625.905825842452</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -17477,13 +17474,13 @@
     </row>
     <row r="136" spans="1:41">
       <c r="A136" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
       <c r="C136">
-        <v>3620</v>
+        <v>3210.869677115934</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -17599,13 +17596,13 @@
     </row>
     <row r="137" spans="1:41">
       <c r="A137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B137">
         <v>0</v>
       </c>
       <c r="C137">
-        <v>2040</v>
+        <v>2067.29003376698</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -17721,13 +17718,13 @@
     </row>
     <row r="138" spans="1:41">
       <c r="A138" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B138">
         <v>0</v>
       </c>
       <c r="C138">
-        <v>1600</v>
+        <v>1751.664428859304</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -17843,13 +17840,13 @@
     </row>
     <row r="139" spans="1:41">
       <c r="A139" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B139">
         <v>0</v>
       </c>
       <c r="C139">
-        <v>1290</v>
+        <v>1093.134170274031</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -17965,13 +17962,13 @@
     </row>
     <row r="140" spans="1:41">
       <c r="A140" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B140">
         <v>0</v>
       </c>
       <c r="C140">
-        <v>7290</v>
+        <v>6487.899081675427</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -18087,13 +18084,13 @@
     </row>
     <row r="141" spans="1:41">
       <c r="A141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B141">
         <v>0</v>
       </c>
       <c r="C141">
-        <v>630</v>
+        <v>571.453129531788</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -18209,13 +18206,13 @@
     </row>
     <row r="142" spans="1:41">
       <c r="A142" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B142">
         <v>0</v>
       </c>
       <c r="C142">
-        <v>420</v>
+        <v>469.9423670895969</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -18331,13 +18328,13 @@
     </row>
     <row r="143" spans="1:41">
       <c r="A143" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
       <c r="C143">
-        <v>600</v>
+        <v>579.0880693780265</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -18453,13 +18450,13 @@
     </row>
     <row r="144" spans="1:41">
       <c r="A144" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B144">
         <v>0</v>
       </c>
       <c r="C144">
-        <v>780</v>
+        <v>731.9993357350996</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -18575,13 +18572,13 @@
     </row>
     <row r="145" spans="1:41">
       <c r="A145" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B145">
         <v>0</v>
       </c>
       <c r="C145">
-        <v>5620</v>
+        <v>4944.191641077407</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -18697,13 +18694,13 @@
     </row>
     <row r="146" spans="1:41">
       <c r="A146" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B146">
         <v>0</v>
       </c>
       <c r="C146">
-        <v>6340</v>
+        <v>6114.227214287786</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -18819,13 +18816,13 @@
     </row>
     <row r="147" spans="1:41">
       <c r="A147" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B147">
         <v>0</v>
       </c>
-      <c r="C147" t="s">
-        <v>119</v>
+      <c r="C147">
+        <v>0</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -18941,13 +18938,13 @@
     </row>
     <row r="148" spans="1:41">
       <c r="A148" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B148">
         <v>0</v>
       </c>
       <c r="C148">
-        <v>6050</v>
+        <v>7556.788578822353</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -19063,13 +19060,13 @@
     </row>
     <row r="149" spans="1:41">
       <c r="A149" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
       <c r="C149">
-        <v>980</v>
+        <v>871.998368594318</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -19185,13 +19182,13 @@
     </row>
     <row r="150" spans="1:41">
       <c r="A150" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B150">
         <v>0</v>
       </c>
       <c r="C150">
-        <v>1580</v>
+        <v>1641.006984799246</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -19307,13 +19304,13 @@
     </row>
     <row r="151" spans="1:41">
       <c r="A151" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B151">
         <v>1</v>
       </c>
       <c r="C151">
-        <v>1370</v>
+        <v>1062.040157863007</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -19429,13 +19426,13 @@
     </row>
     <row r="152" spans="1:41">
       <c r="A152" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B152">
         <v>1</v>
       </c>
       <c r="C152">
-        <v>820</v>
+        <v>1134.924536209078</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -19551,13 +19548,13 @@
     </row>
     <row r="153" spans="1:41">
       <c r="A153" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B153">
         <v>0</v>
       </c>
       <c r="C153">
-        <v>3040</v>
+        <v>2425.561644739583</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -19673,13 +19670,13 @@
     </row>
     <row r="154" spans="1:41">
       <c r="A154" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B154">
         <v>0</v>
       </c>
       <c r="C154">
-        <v>1380</v>
+        <v>1469.192636109792</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -19795,13 +19792,13 @@
     </row>
     <row r="155" spans="1:41">
       <c r="A155" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B155">
         <v>1</v>
       </c>
       <c r="C155">
-        <v>730</v>
+        <v>869.0586852798759</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -19917,13 +19914,13 @@
     </row>
     <row r="156" spans="1:41">
       <c r="A156" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B156">
         <v>0</v>
       </c>
       <c r="C156">
-        <v>1530</v>
+        <v>1529.507453727912</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -20039,13 +20036,13 @@
     </row>
     <row r="157" spans="1:41">
       <c r="A157" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B157">
         <v>0</v>
       </c>
       <c r="C157">
-        <v>5810</v>
+        <v>5176.058803160127</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -20161,13 +20158,13 @@
     </row>
     <row r="158" spans="1:41">
       <c r="A158" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B158">
         <v>0</v>
       </c>
       <c r="C158">
-        <v>3510</v>
+        <v>3382.563653843273</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -20283,13 +20280,13 @@
     </row>
     <row r="159" spans="1:41">
       <c r="A159" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B159">
         <v>0</v>
       </c>
       <c r="C159">
-        <v>1830</v>
+        <v>1644.598009122967</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -20405,13 +20402,13 @@
     </row>
     <row r="160" spans="1:41">
       <c r="A160" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B160">
         <v>0</v>
       </c>
       <c r="C160">
-        <v>3800</v>
+        <v>3242.636921959078</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -20527,13 +20524,13 @@
     </row>
     <row r="161" spans="1:41">
       <c r="A161" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B161">
         <v>1</v>
       </c>
       <c r="C161">
-        <v>780</v>
+        <v>729.8559996981501</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -20635,7 +20632,7 @@
         <v>0</v>
       </c>
       <c r="AL161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM161">
         <v>0</v>
@@ -20649,13 +20646,13 @@
     </row>
     <row r="162" spans="1:41">
       <c r="A162" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B162">
         <v>0</v>
       </c>
       <c r="C162">
-        <v>2110</v>
+        <v>2111.193164269742</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -20771,13 +20768,13 @@
     </row>
     <row r="163" spans="1:41">
       <c r="A163" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B163">
         <v>0</v>
       </c>
       <c r="C163">
-        <v>1360</v>
+        <v>1129.713195979213</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -20893,13 +20890,13 @@
     </row>
     <row r="164" spans="1:41">
       <c r="A164" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B164">
         <v>0</v>
       </c>
       <c r="C164">
-        <v>7250</v>
+        <v>6411.986543373589</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -21015,13 +21012,13 @@
     </row>
     <row r="165" spans="1:41">
       <c r="A165" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B165">
         <v>1</v>
       </c>
       <c r="C165">
-        <v>620</v>
+        <v>548.2681436079887</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -21137,13 +21134,13 @@
     </row>
     <row r="166" spans="1:41">
       <c r="A166" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B166">
         <v>0</v>
       </c>
       <c r="C166">
-        <v>2000</v>
+        <v>1895.214690888655</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -21259,13 +21256,13 @@
     </row>
     <row r="167" spans="1:41">
       <c r="A167" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B167">
         <v>0</v>
       </c>
       <c r="C167">
-        <v>5390</v>
+        <v>5089.61202008711</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -21381,13 +21378,13 @@
     </row>
     <row r="168" spans="1:41">
       <c r="A168" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B168">
         <v>0</v>
       </c>
       <c r="C168">
-        <v>6120</v>
+        <v>6262.368904654469</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -21503,13 +21500,13 @@
     </row>
     <row r="169" spans="1:41">
       <c r="A169" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B169">
         <v>1</v>
       </c>
       <c r="C169">
-        <v>410</v>
+        <v>359.6000402964525</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -21625,13 +21622,13 @@
     </row>
     <row r="170" spans="1:41">
       <c r="A170" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B170">
         <v>0</v>
       </c>
       <c r="C170">
-        <v>9530</v>
+        <v>10236.89594140222</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -21747,13 +21744,13 @@
     </row>
     <row r="171" spans="1:41">
       <c r="A171" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B171">
         <v>0</v>
       </c>
-      <c r="C171" t="s">
-        <v>119</v>
+      <c r="C171">
+        <v>0</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -21869,13 +21866,13 @@
     </row>
     <row r="172" spans="1:41">
       <c r="A172" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B172">
         <v>0</v>
       </c>
       <c r="C172">
-        <v>970</v>
+        <v>904.381892324943</v>
       </c>
       <c r="D172">
         <v>0</v>

--- a/output/sed.xlsx
+++ b/output/sed.xlsx
@@ -2474,7 +2474,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>334.0215725731523</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -10526,7 +10526,7 @@
         <v>0</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>4125.78</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -10776,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>30346.925</v>
+        <v>9834</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>2825</v>
+        <v>4107</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -11020,7 +11020,7 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>122070.005</v>
+        <v>5838</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>30726.875</v>
+        <v>33587</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -11264,7 +11264,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>67704.295</v>
+        <v>92935</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -11386,7 +11386,7 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>2373</v>
+        <v>0</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -11508,7 +11508,7 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>8701</v>
+        <v>16380</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -11630,7 +11630,7 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>63617.47</v>
+        <v>91382</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -11752,7 +11752,7 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>3319.585</v>
+        <v>0</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -11874,7 +11874,7 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>2260</v>
+        <v>3866</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -11996,7 +11996,7 @@
         <v>0</v>
       </c>
       <c r="E91">
-        <v>5669.21</v>
+        <v>65504</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -12118,7 +12118,7 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <v>36612.85</v>
+        <v>129332</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -12240,7 +12240,7 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>414.37</v>
+        <v>17390</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -12362,7 +12362,7 @@
         <v>0</v>
       </c>
       <c r="E94">
-        <v>20674.825</v>
+        <v>118952</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -12484,7 +12484,7 @@
         <v>0</v>
       </c>
       <c r="E95">
-        <v>84750.815</v>
+        <v>113276</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -12606,7 +12606,7 @@
         <v>0</v>
       </c>
       <c r="E96">
-        <v>67123.83500000001</v>
+        <v>63427</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -12728,7 +12728,7 @@
         <v>0</v>
       </c>
       <c r="E97">
-        <v>22419.495</v>
+        <v>73863</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -12850,7 +12850,7 @@
         <v>0</v>
       </c>
       <c r="E98">
-        <v>17102.835</v>
+        <v>127326</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -12972,7 +12972,7 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>39435.54</v>
+        <v>0</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -13094,7 +13094,7 @@
         <v>0</v>
       </c>
       <c r="E100">
-        <v>11173.44</v>
+        <v>0</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -13210,13 +13210,13 @@
         <v>0</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>1526.54</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>17813.665</v>
+        <v>0</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -13338,7 +13338,7 @@
         <v>0</v>
       </c>
       <c r="E102">
-        <v>1568.1</v>
+        <v>8982</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -15894,7 +15894,7 @@
         <v>0</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>1366.25</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -16379,7 +16379,7 @@
         <v>166</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127">
         <v>1002.388731936373</v>
@@ -16388,7 +16388,7 @@
         <v>0</v>
       </c>
       <c r="E127">
-        <v>24236.115</v>
+        <v>39435.54</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -16501,7 +16501,7 @@
         <v>167</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128">
         <v>1128.996380299766</v>
@@ -16510,7 +16510,7 @@
         <v>0</v>
       </c>
       <c r="E128">
-        <v>9345.715</v>
+        <v>30346.925</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -16632,7 +16632,7 @@
         <v>0</v>
       </c>
       <c r="E129">
-        <v>74816.88</v>
+        <v>36612.85</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -16754,7 +16754,7 @@
         <v>0</v>
       </c>
       <c r="E130">
-        <v>4842.92</v>
+        <v>0</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -16867,7 +16867,7 @@
         <v>170</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131">
         <v>956.659691840205</v>
@@ -16876,7 +16876,7 @@
         <v>0</v>
       </c>
       <c r="E131">
-        <v>42582.455</v>
+        <v>122070.005</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -16998,7 +16998,7 @@
         <v>0</v>
       </c>
       <c r="E132">
-        <v>48668.635</v>
+        <v>30726.875</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -17120,7 +17120,7 @@
         <v>0</v>
       </c>
       <c r="E133">
-        <v>3568.385</v>
+        <v>414.37</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -17242,7 +17242,7 @@
         <v>0</v>
       </c>
       <c r="E134">
-        <v>11435.355</v>
+        <v>20674.825</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -17364,7 +17364,7 @@
         <v>0</v>
       </c>
       <c r="E135">
-        <v>93632.96000000001</v>
+        <v>67704.295</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -17486,7 +17486,7 @@
         <v>0</v>
       </c>
       <c r="E136">
-        <v>59790.915</v>
+        <v>84750.815</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -17608,7 +17608,7 @@
         <v>0</v>
       </c>
       <c r="E137">
-        <v>83710.185</v>
+        <v>67123.83500000001</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -17730,7 +17730,7 @@
         <v>0</v>
       </c>
       <c r="E138">
-        <v>1637.02</v>
+        <v>0</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -17852,7 +17852,7 @@
         <v>0</v>
       </c>
       <c r="E139">
-        <v>25659.6</v>
+        <v>63617.47</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -17974,7 +17974,7 @@
         <v>0</v>
       </c>
       <c r="E140">
-        <v>5631.325</v>
+        <v>0</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -18087,7 +18087,7 @@
         <v>180</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141">
         <v>571.453129531788</v>
@@ -18096,7 +18096,7 @@
         <v>0</v>
       </c>
       <c r="E141">
-        <v>10170.955</v>
+        <v>2373</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -18209,7 +18209,7 @@
         <v>181</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C142">
         <v>469.9423670895969</v>
@@ -18218,7 +18218,7 @@
         <v>0</v>
       </c>
       <c r="E142">
-        <v>5949.735</v>
+        <v>0</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -18331,7 +18331,7 @@
         <v>182</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143">
         <v>579.0880693780265</v>
@@ -18340,7 +18340,7 @@
         <v>0</v>
       </c>
       <c r="E143">
-        <v>4742.355</v>
+        <v>0</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -18453,7 +18453,7 @@
         <v>183</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144">
         <v>731.9993357350996</v>
@@ -18462,7 +18462,7 @@
         <v>0</v>
       </c>
       <c r="E144">
-        <v>8446.950000000001</v>
+        <v>0</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -18584,7 +18584,7 @@
         <v>0</v>
       </c>
       <c r="E145">
-        <v>33160.11</v>
+        <v>22419.495</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -18706,7 +18706,7 @@
         <v>0</v>
       </c>
       <c r="E146">
-        <v>13131.85</v>
+        <v>17102.835</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -18822,13 +18822,13 @@
         <v>0</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>1404.51</v>
       </c>
       <c r="D147">
         <v>0</v>
       </c>
       <c r="E147">
-        <v>17542.305</v>
+        <v>17813.665</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -18950,7 +18950,7 @@
         <v>0</v>
       </c>
       <c r="E148">
-        <v>5631.3</v>
+        <v>0</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -19072,7 +19072,7 @@
         <v>0</v>
       </c>
       <c r="E149">
-        <v>4223.475</v>
+        <v>3319.585</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -19185,7 +19185,7 @@
         <v>189</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150">
         <v>1641.006984799246</v>
@@ -19194,7 +19194,7 @@
         <v>0</v>
       </c>
       <c r="E150">
-        <v>11719.705</v>
+        <v>5669.21</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -21750,7 +21750,7 @@
         <v>0</v>
       </c>
       <c r="C171">
-        <v>0</v>
+        <v>941.02</v>
       </c>
       <c r="D171">
         <v>0</v>
